--- a/CompanyAssignment/blog_data.xlsx
+++ b/CompanyAssignment/blog_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1403,6 +1403,1969 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/explore5468/223277407023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2023. 11. 28. 21:13</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>핫플레이스</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>연말모임하기 좋은 역삼역 맛집</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>지난 휴무때는 오랜만에 친구들과 만나 사전에 미리 서칭 해 두었던 역삼역 맛집에서 식사를 즐겼어요. 잡내는 커녕 하나같이 정성 가득하고 퀄리티 좋았던 중식 코스요리를 누리고와 소개 해 볼게요.​1. js가든 센터필드점​주소 : 서울 강남구 테헤란로 231 센터필드번호 : 02-6985-7227영업시간 : 매일 11:00 - 22:00대표메뉴 : 목화솜탕수육 45,000원
+50m© NAVER Corp.더보기 /OpenStreetMap지도 데이터x© NAVER Corp. /OpenStreetMap지도 컨트롤러 범례부동산거리읍,면,동시,군,구시,도국가
+js가든 센터필드점
+서울특별시 강남구 테헤란로 231 센터필드
+이날 식사를 즐겼던 js가든 센터필드점은 지하철 역삼역 8번출구에서 도보로 6분정도 걷다보면 도착이 가능했어요. 센터필드 건물 2층에 자리잡고 있어 안으로 입장한 뒤에 에스컬레이터를 타고 이동 해 줬답니다.
+가게 외관에는 친절하게 영업시간부터 정보가 깔끔하게 정리되어 있었어요. 주차는 건물 내에 가능했고 식사는 11시부터 22시까지였고 브레이크타임이 15시부터 17시30분까지라고 하니 참고 해 주세요.특히나 연말모임에 안성맞춤인 이유가 콜키지프리가 가능하다는점이었어요.
+안으로 입장을 하자마자 보테니컬한 큼지막한 화분들과 깔끔한 홀이 반겨줬어요. 고급스러움과 캐주얼함이 적절하게 어우러진 분위기였고 테이블 간격도 충분하게 배치되어 있어 서로 방해 받지 않고 식사가 가능했어요.
+게다가 아예 구분되어 있는 프라이빗한 룸도 세팅되어 있어 단체 모임이나 중요한 식사 모임을 가지기에도 충분 해 보였어요. 친절하게 안내 해 주시는 직원분들까지 서비스 정신도 확실했어요.
+수 많은 테이블 만큼이나 단독룸이나 단체룸이 잘 준비되어 있어 부담이 없었어요. 데이트는 물론 비즈니스 모임이나 가족 식사까지 책임지기 충분한 역삼역 맛집 그 자체였답니다.
+얼른 자리를 잡고 앉아 이날 곁들일 디너코스 튤립을 오더 해 줬답니다. 가장 먼저 아홉가지 재료들을 가지런하게 세팅 해 주시는 가든냉채09가 등장해 입맛이 확 살아나는 기분이었어요.
+어떻게 보면 톡 쏘는 냉채 향이나 맛은 호불호 갈릴 수 있겠지만 이것만큼은 달랐어요. 식재료 본연의 맛이나 식감이 잘 살아있어 술술 넘어갔고 느끼함을 덜어주는 향미까지 완벽했죠.
+오도독 씹히는 전복의 부드러움부터 연어와 상큼한 블루베리의 조합은 상당한 케미를 자랑했어요. 서로 부족한 부분을 충족시켜주는 조합이었고 입 안에서 사르륵 녹아내리더라고요.
+그런 다음에는 향부터가 장난아니었던 자연송이 해물완자스프를 내어주셨답니다. 그릇을 손으로 감싸보니 너무 부담스럽지 않고 적당히 뜨끈한 온기가 그대로 전달이 되었답니다.
+먼저 안에 있는 건더기 위주로 집어보았는데 자연송이의 향긋함과 부드러움이 달큰하게 느껴졌어요. 거기에 탱글하고 쫄깃한 해물완자까지 역삼역 맛집다운 시원하고 개운한 맛이라 더할나위 없었어요.
+먹기도전에 기대가 됐던 게살 샥스핀은 류산슬 베이스로 요리를 마쳐 더욱 매력적이고 대중적이었어요. 얇게 찢어 손질을 마친 게살부터 샥스핀까지 부담없이 집어먹기 좋았답니다.
+앞접시에 내용물을 덜어내보자 안에는 새우부터 갖가지 버섯과 야채들도 가득했어요. 부족한 향과 식감을 보충 해 주고 있었는데 꾸덕하고 고소한 맛은 단짝하게 간이 잘 되어있었어요.
+탱글하고 쫄깃한 새우와 더불어 아작 씹히는 콜라겐 덩어리인 샥스핀까지 매력 넘쳤어요. 입 안에서 저마다의 존재감을 강력하게 어필하고 있는데 절묘하게 어우러져 겉돌지가 않았죠.
+그런 다음에는 키조개 발채소스를 마주했는데 발채는 중국에서 자라는 이끼같은 풀이라고 해요. 식감이 꽤 재미있을 것 같았고 살짝 데친 양상추를 아래에 깔아주셨어요.
+파 기름을 베이스로 달달 볶아서 만들어낸 발채 소스라 그런지 향미가 으뜸이었어요. 개운하면서도 아작 씹히는 발채가 지루함과 느끼함을 덜어줘 괜히 역삼역 맛집이 아니구나 싶었죠.
+도톰하면서도 실한 사이즈의 관자를 빠르게 집어 입 안으로 쏙 넣어보았어요. 질기기는 커녕 쫄깃한 맛은 부드럽게 녹아 사라졌고 맛맵시를 더해주는 발채와 소스까지 완벽했어요.
+거기에 넉넉하게 고추튀김을 뿌려주신 마늘등갈비는 냄새가 코를 찌르더라고요. 바삭하게 튀겨낸 등갈비의 이색적인 변신과 마늘, 땅콩을 같이 볶아주셔서 향부터 대박이었죠.
+얼른 등갈비 한 점을 집어보았는데 튀김옷 자체가 두텁거나 부담스럽지가 않았어요. 적당히 바삭하면서도 부드럽고 쫄깃한 육질이 금새 느껴져 연신 고개가 끄덕여지더라고요.
+겉은 바삭 속은 촉촉 그 자체였고 마늘, 땅콩을 함께 볶아주셔서 은은한 향미가 일품이었어요. 거기에 매콤함으로 느끼함을 덜어주는 고추튀김까지 조합 자체도 훌륭했어요.
+메인급의 아스파라거스 소안심은 국내산 소안심을 사용하고 있다고 해요. 양파부터 양송이버섯, 아스파라거스와 같은 가니쉬와 함께 볶아 역삼역 맛집의 요리로 탄생했죠.
+얼른 먹기 좋게 손질을 한 다음에 고기 한 덩이를 집어 입 안에 넣어보았어요. 씹자마자 단짝하면서도 고소한 육즙이 뿜어져 나왔고 몇 번 씹다보면 금새 녹아내리더라고요.
+거기에다가 달큰하고 짭짜름한 소스맛이 진하게 베어있는 가니쉬도 완벽했어요. 탱글하고 부드러웠던 양송이 버섯부터 육향 가득한 소안심까지 남김없이 해치웠어요.
+그런 다음에는 도삭면으로 만든 짜장면을 식사 메뉴로 음미 해 보았어요. 면이 두텁지만 찰지고 쫄깃하면서도 소스와 잘 어우러져 부족하지 않았어요.
+잘 섞어준 다음에 후루룩 흡입 해 보니 신선한 양파와 춘장의 풍미가 그윽하게 느껴졌어요. 딱 맛있는 짜장면이라고 자부 할 만큼 달짝 고소한게 별미였죠.
+식사 후의 마무리는 상큼하고 시원한 요거트 아이스크림으로 입가심을 즐겼어요. 구성은 물론 뛰어난 맛까지 흠잡을데 없던 역삼역 맛집이었답니다.
+   광고 후 계속됩니다.     다음 subject author   
+			취소
+		   역삼역 맛집 
+	재생 
+ 0 
+	좋아요 
+ 0 
+		좋아요
+		공유 하기
+	                       0:00:00    
+		재생
+		음소거
+	00:00
+	00:00
+ 실시간     
+		설정
+		전체 화면
+			해상도
+		 currentTrack   
+			자막
+		 사용 안함  
+			재생 속도
+		 NaNx   해상도    자막 
+	설정
+			사용 안함
+		      옵션  글자 크기    배경색    재생 속도   0.5x 1.0x (기본) 1.5x 2.0x    
+        알 수 없는 오류가 발생했습니다.
+					도움말
+				   음소거 상태입니다. 
+            도움말
+            라이센스
+				고화질 재생이 가능한 영상입니다.
+				설정에서 해상도를 변경해보세요.
+			 더 알아보기 
+	0:00:00
+접기/펴기js가든 센터필드점역삼역 맛집
+2. 바게트케이​주소 : 서울 강남구 테헤란로34길 21-10번호 : 02-567-9501영업시간 : 매일 06:30 - 19:30대표메뉴 : 말제르브바게트 5,500원​바삭한 바게트를 구워 내어주는 바게트케이에요.고소한 베이커리 냄새에 발걸음을 멈추될 정도인데 종류도 다양하고양도 제법 많다보니 아침식사 대용으로도 안성맞춤이었어요.​​3. 일품각 역삼동점​주소 : 서울 강남구 강남대로96길 18번호 : 02-566-8815영업시간 : 매일 13:00 - 01:00대표메뉴 : 마라샹궈 30,000원​잡내가 전혀 느껴지지 않던 쫄깃한 양꼬치 전문점 일품각 역삼동점이에요.사천 원앙훠궈부터 마라샹궈까지 술안주로도 손색 없었는데요.쫀득한 꿔바로우와 함께 친구와 술한잔하며 스트레스도 풀 수 있었어요.​​4. 더막창스​주소 : 서울 서초구 서초대로77길 37 서초동월드 106호번호 : 0507-1459-8593영업시간 : 매일 12:00 - 02:00대표메뉴 : 불양념막창 14,000원​방송플랫폼에서도 소개가 된적 있던 더막창스에요.막창과 대창이 베스트인데 쫄깃함이 남달랐던만큼 입소문이 자자한곳이었어요.매콤한 소스의 불양념은 한입 먹자마자 식욕이 폭발될 정도로 감칠맛 대박이랍니다.​​5. 카멜커피 도산점​주소 : 서울 강남구 도산대로45길 16-8번호 : 010-7774-1484영업시간 : 매일 10:00 - 21:00대표메뉴 : 플랫화이트 5,500원​그윽한 커피에 크림까지 올라간 커피로 유명한 카멜커피 도산점이에요.인기만점인 앙버터와 함께 곁들이면 식후 입가심으로 이만한게 없을정도 인데요.워낙 유명한곳이다보니 웨이팅이 있으니 참고해서 방문하시면 좋을 것 같아요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/somvly_g1/223088229214</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2023. 4. 29. 1:08</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>솜블리</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>강남/역삼맛집 가볍게 먹으려다가 D지게 먹은 (전)강남직장인의 먹리스트 후기(돼지통/일품각/한성양꼬치/세광양대창/배달)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>분명 안먹으랬는데 조금만 가볍게 먹을까했다가많이먹어서 부족한 사진들을 어쩌다가하다한꺼번에 먹리스트 후기로 찌게되었습미댜너무맛잇어서 후기쩌야지😆 했는데갤러리봤더니 사진이 3-4개,,🙄ㅎ 다들 있으시져?전)강남직장인의 강남/역삼맛집 먹리스트 후기라능(대부분 회돈회산/n돈n산)
+1.돼지통-회식의 정석🐷-
+회식하면 고기 고기하면 회식여기는 꽤 여러번 갔던 강남/역삼맛집 돼지통🐷고기가 워낙 맛잇어서 회식말고도 종종갔는데고기 질도 너무 좋고 사이드들도 만족스럽슴댜고기때깔부터 이미 합격아닌가여?이쪽 근무하시는 분들한테는 꽤나 알려져있어서회식장소로 추진했는데 그후로 단골되버려쮸​​​​
+남이 구워주는 고기가 제일 맛잇져고기도 도톰하고 채소류도 잘라서 같이 구워주시는데가지랑 꽈고가 진짜,,,,최고,,,,,,,바쁘실때 어떻게든 혼자서 해보려고하면어느센가 스윽 다가오셔서 집게로 집도해주십니다ㅎㅎ​​​​
+사이드 이것저것 다 좋지만⭐된장술밥 원탑⭐여기서 된장술밥에 눈떠서어디서든 있으면 시켜먹고없으면 된장국에 밥이라도 말아먹게되었움원래 고기먹을때 된찌 국룰 알았찌만여기는 유독 맛잇었어서 아직도 기억남아여이거땜에 다시 강남으로 출근하고싶다 아오​​​​
+또갔을때ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ사실 사진안찍고도 몇번 갔는데이날은 이쪽 근무 마지막날이라 아쉬워서 가게됨여기 간장+날계란 셋팅해주시는데고기를 또 요거에 찍먹하면 또 그렇게 맛잇습다?그리워 돼지통......​​​​
+돼지통고기는 킹정입니닷쫠깃하고 촉촉한데 불향 한가득술이 술술​​​2.일품각 역삼동점-양꼬치+요리류는 못참지👲-
+역삼쪽에 양꼬치집이 은근 없어여강남으로 가거나 좀 더가서 한성양꼬치를 가거나..양고기러버로써 퇴근후 양꼬치는 못참기에일단 가까운 강남/역삼맛집 일품각으로 궈궈매운양꼬치였나 마라양꼬치였나일단 양념된 양꼬치 있다는거에 좋았고그외에도 요리류(양고기볶음?꿔바로우,마라탕) 다양해서또 왕창 먹어줬죠ㅎㅎ 회돈회산 넘좋당 헿한잔술도 있어서 가볍게 한잔할수도있움!​​​​
+그렇게 먹고도 2차맥주는 먹어야하기때문에그냥 근처 맥주집에서 윙봉에 나쵸 김치전까지알차게 클리어-​​​3.월급날은 배달파티-다양하게 FLEX 할 수 있어서 조쿠둥요💸-
+팀사람들끼리도 너무 친해서ㅋㅋㅋㅋㅋ월급날만되면 그날 점심은 무족건 배달로 한가득ㅋㅋㅋㅋ떡볶이에 치킨 조합은 말모,,엽떡+허니콤보 넘좋쿠여밥이랑 핫도그까지 알차게 쟁김 희희다먹고 오후에 식곤증으로 ㄷ질뻔​​​​
+다음달은 도미노피자+신전ㅋㅋㅋㅋ이날 역대급으로 양이 많아서ㅋㅋㅋ1차로 먹고 2차로 먹었을정도,,만족못하고 얼마나 추가해댔던지스파게티에 김밥에 튀김에 난리부르스리이날도 식곤증에 열심히 싸운 우리팀ㅋㅋㅋㅋ​​​4.한성양꼬치-이구역 양꼬치 도장깨기 완🐏-
+역삼의 또다른 양꼬치집강남/역삼맛집 한성양꼬치여기는 좀 유명한 곳이었댜한성양꼬치 1호점 꽉차서 2호점갔는데그래도 사람많아서 퇴근하고 달렸는데도한자리 겨우 차지했을 정도일단 양꼬치 앤 칭따오 꿔바로우 달룟​​​​
+아 양꼬치 맛잇더라구여,,,개인적으로 일품각과 비교해보자면살짝 로컬스러운게 일품각 / 깔끔대중스러운게 한성몰랴 둘다맛잇어여ㅠㅠ​​​​
+아 여기는 어향가지 맛집입니다처음먹어봤거둥요? 미침.....양념 잘된 가지튀김인데 술안주로 딱이에여👍​​​5.갓포돈-점심웨이팅 기다리면서도 먹을만한 맛🍋-
+점심시간에는 어디든 웨이팅이지만강남/역삼맛집 갓포돈은 진짜 절어여..레몬+트러플 소금과 겉바속촉 제대로인돈까스의 조합이 미쳤다고 소문이 ZAZA​​​​
+웨이팅에 이름걸어두고 메뉴도 적어두는데그래서 봐본 메뉴들,, 세트도 있고 단품도 있고저녁에는 안주류들도 팝니닷가게내부는 작고 좁은데 다닥다닥 들어갈수있는,,사람이 진짜 너무많아서 찍을수가없​​​​
+왼쪽이 로스까츠, 오른쪽이 모둠까츠사진만 봐도 겉바속촉 제대로쥬?크기도 도톰해서 먹고나면 든든해여​​​​
+직접만드신 레몬소금에 뙇 찍어먹으면진짜 살짝 레몬향 나면서 도톰한 돈까스에 싹 어우러지는게깔끔해서 질리지가 않아여!!!!녹는댜 녹아🍋​​​6.세광양대창-곱이 내 팔뚝만하고👍 양밥 누가먹었냐-
+강남/역삼맛집 세광양대창여기는 뭐 워낙 유명하져......알아주는 내장류 덕후 솜블리라 벼르고있던곳모둠구이에 곱창전골 뿌시러 왔씀니다여기 양볶음밥이 진짜 맛잇는데이날 일행들이 밥을 다먹어서 한입먹고 못먹었거든여?그게 아직도 한임........ 줜맛탱이었는데​​​​
+   광고 후 계속됩니다.     다음 subject author   
+			취소
+		   ﻿강남/역삼맛집 가볍게 먹으려다가 D지게 먹은 (전)강남직장인의 먹리스트 
+	재생 
+ 9 
+	좋아요 
+ 4 
+		좋아요
+		공유 하기
+	                       0:00:00    
+		재생
+		음소거
+	00:00
+	00:09
+ 실시간     
+		설정
+		전체 화면
+			해상도
+		 자동 480p   
+			자막
+		 사용 안함  
+			재생 속도
+		 1.0x (기본)   해상도   
+			자동 (480p)
+			1080p
+		 HD    
+			720p
+		 HD    
+			480p
+			270p
+			144p
+		    자막 
+	설정
+			사용 안함
+		      옵션  글자 크기    배경색    재생 속도   0.5x 1.0x (기본) 1.5x 2.0x    
+        알 수 없는 오류가 발생했습니다.
+					도움말
+				   음소거 상태입니다. 
+            도움말
+            라이센스
+				고화질 재생이 가능한 영상입니다.
+				설정에서 해상도를 변경해보세요.
+			 더 알아보기 
+	0:00:00
+접기/펴기﻿강남/역삼맛집 가볍게 먹으려다가 D지게 먹은 (전)강남직장인의 먹리스트#강남맛집#역삼맛집#직장인#회식#돼지통#세광양대창#일품각양꼬치#한성양꼬치#떡볶이#갓포돈
+이 숯불로 구우면 뭔들 안맛있겠어여ㅠㅠㅠ안에 곱들도 통통하게 들어있고이날 돈 꽤나 나왔찌만 행복해썼다-☆너무맛잇어여 여기​​​​
+곱창전골과 한입먹고 없어져서사진도 없는 양볶음밥,,,,곱창전골도 진짜 술안주로 딱이고꼭 또가자고 했는데 퇴사해버려서 영영 못가게된😂근처에 세광양대창있으면 꼭 가서 영접해주세여🙏이상 회돈회산/n돈n산 먹리스트 후기였슴댜-​​​​
+300m© NAVER Corp.더보기 /OpenStreetMap지도 데이터x© NAVER Corp. /OpenStreetMap지도 컨트롤러 범례부동산거리읍,면,동시,군,구시,도국가
+돼지통 본점
+서울특별시 강남구 테헤란로19길 29 1층 돼지통
+예약
+일품각 역삼동점
+서울특별시 강남구 강남대로96길 18
+예약
+한성양꼬치 강남2호점
+서울특별시 강남구 역삼로3길 14
+세광양대창 강남역중앙점
+서울특별시 강남구 강남대로94길 14 1층
+예약
+갓포돈
+서울특별시 강남구 테헤란로25길 20 역삼현대벤쳐텔 B102호
+​</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/hdsign88/223300260863</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2023. 12. 22. 11:09</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>불뚝이</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>역삼 고기집 회식 맛집 칠프로칠백식당 역삼직영점 메뉴 주차 후기</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>오늘은 역삼 고기집으로 갑니다!강남으로 갈까 하다가강남에는 사람이 너무너무 많아서상대적으로 사람이 적을 것 같은역삼 고기집으로 찾아왔어요 ㅎㅎ​그런데 역삼역 회식이 많은지...연말에는 역삼역도 사람이 많네요 ㅋㅋ​
+50m© NAVER Corp.더보기 /OpenStreetMap지도 데이터x© NAVER Corp. /OpenStreetMap지도 컨트롤러 범례부동산거리읍,면,동시,군,구시,도국가
+칠프로칠백식당 역삼직영점
+서울특별시 강남구 테헤란로38길 27 1층
+예약
+&lt;역삼 고기집 칠프로칠백식당 역삼점&gt;​🌈주소- 서울 강남구 테헤란로38길 27 1층- 서울 강남구 역삼동 721-3- 2호선 역삼역 1번출구 622m​🌈전화번호0507-1425-702002-552-7005​🌈영업시간월-토 11:30 ~ 23:00매주 일요일 정기휴무​🌈기타 편의제로페이, 콜키지프리단체석, 주차, 포장, 예약남/녀 화장실 구분​🌈예약 방법네이버예약, 전화예약​🌈주차 방법주차 가능​
+칠프로칠백식당에도크리스마스 산타가 찾아 왔네요!​
+칠프로칠백식당은 워낙 지점이 많아서한우 먹을 때 종종 가는 편인데요맛이나 인테리어가어느 지점에 가도 일관성을유지하는 것 같아요 ㅎㅎ​
+칠프로칠백식당 역삼직영점은홀과 룸이 나눠져 있어요처음에 홀밖에 없는 줄 알고생각보다 작은가 했는데 아니더라고요​
+이렇게 빨간문이 있는 곳이전부 룸이예요!​평일 저녁 7시30분정도라서룸에서는 모두 역삼역 회식이 진행되고 있는지룸이 꽉 차 있어서 안은 못 봤네요 ㅜㅜ​
+칠프로칠백식당의 비밀 하나!자리 옆에 빨간 문을 열면옷장이예요 ㅋㅋㅋ​처음에 몰라서 옷을 그냥 벗어 뒀는데사장님이 문이라고 열어 보라고 하시는거예요!그랬더니 나오는 숨은 옷장 ㅎㅎ비밀의 문 같았어요 ㅋㅋ
+역삼 고기집 칠프로칠백식당 메뉴입니다~!​
+한우모둠, 한우등심, 한우안심, 한우육사시미곤드레밥, 된장찌개, 짱아찌국수메뉴가 간단하면서도 있을 건 다 있어요 ㅎㅎ​
+와인리스트는 여기있습니다~!​
+이렇게 와인도 진열되어 있어서어떤 건지 볼 수도 있어요&gt;&lt;​
+점심에는 점심특선도 있나봐요​
+한우선물세트도 파나보네요 ㅎㅎ​
+메뉴를 살펴보는 사이기본세팅 완료!​
+제일 먼저 나온 메뉴는한우 육사시미예요 ㅎㅎ​
+양념에도 콕 찍어 먹고깻잎이랑도 싸 먹어요 ㅎㅎ​깻잎이 그냥 깻잎이 아니라짱아찌 양념이 살짝 되어 있는 깻잎이라육사시미 싸 먹어도 맛있다고추천해주셨어요&gt;&lt;​
+한우 육사시미를 어느 정도 먹고 나면한우 모둠을 주세요~​
+   광고 후 계속됩니다.     다음 subject author   
+			취소
+		   역삼 고기집 회식 맛집 칠프로칠백식당 역삼직영점 메뉴 주차 후기 
+	재생 
+ 1 
+	좋아요 
+ 0 
+		좋아요
+		공유 하기
+	                       0:00:00    
+		재생
+		음소거
+	00:00
+	00:06
+ 실시간     
+		설정
+		전체 화면
+			해상도
+		 자동 480p   
+			자막
+		 사용 안함  
+			재생 속도
+		 1.0x (기본)   해상도   
+			자동 (480p)
+			1080p
+		 HD    
+			720p
+		 HD    
+			480p
+			270p
+			144p
+		    자막 
+	설정
+			사용 안함
+		      옵션  글자 크기    배경색    재생 속도   0.5x 1.0x (기본) 1.5x 2.0x    
+        알 수 없는 오류가 발생했습니다.
+					도움말
+				   음소거 상태입니다. 
+            도움말
+            라이센스
+				고화질 재생이 가능한 영상입니다.
+				설정에서 해상도를 변경해보세요.
+			 더 알아보기 
+	0:00:00
+역삼 고기집 회식 맛집 칠프로칠백식당 역삼직영점 메뉴 주차 후기
+고기 구울 타이밍에 맞게한우 모둠을 내주시는 센스!​
+마블링도 좋고 빛깔도 좋고맛있어보이죠 ㅎㅎ​
+제일 먼저 살치살부터구워봅니다 ㅎㅎ​처음에는 맛있게 먹으라고사장님께서 구워주셨어요~살치살은 구워주시고그 다음부터는 먹는 속도에 맞춰서구워먹으면 된대요&gt;&lt;​
+고기 구워지는 걸 기다리는 시간이제일 견디기 힘들어요 ㅜㅜ​
+처음은 소금에 찍어 먹어보라고 하셨으니소금에 톡 찍어서 고기맛을 느껴봤어요 ㅎㅎ부드럽고 고소함이 쭉 올라와요!​
+육사시미 32,000원한우모듬 34,000원살치살, 안창살, 늑간살, 덧살된장찌개 5,000원곤드레밥 3,000원짱아찌국수 8,000원콜라 2,000원​
+   광고 후 계속됩니다.     다음 subject author   
+			취소
+		   역삼 고기집 회식 맛집 칠프로칠백식당 역삼직영점 메뉴 주차 후기 
+	재생 
+ 1 
+	좋아요 
+ 0 
+		좋아요
+		공유 하기
+	                       0:00:00    
+		재생
+		음소거
+	00:00
+	00:18
+ 실시간     
+		설정
+		전체 화면
+			해상도
+		 자동 480p   
+			자막
+		 사용 안함  
+			재생 속도
+		 1.0x (기본)   해상도   
+			자동 (480p)
+			1080p
+		 HD    
+			720p
+		 HD    
+			480p
+			270p
+			144p
+		    자막 
+	설정
+			사용 안함
+		      옵션  글자 크기    배경색    재생 속도   0.5x 1.0x (기본) 1.5x 2.0x    
+        알 수 없는 오류가 발생했습니다.
+					도움말
+				   음소거 상태입니다. 
+            도움말
+            라이센스
+				고화질 재생이 가능한 영상입니다.
+				설정에서 해상도를 변경해보세요.
+			 더 알아보기 
+	0:00:00
+역삼 고기집 회식 맛집 칠프로칠백식당 역삼직영점 메뉴 주차 후기
+식사는 원할 때 말하라고 하셔서한우 고기 구우면서 먹으려고바로 달라고 요청드렸어요 ㅎㅎ​
+한그릇 가득 들어 있는 짱아찌국수!칠프로칠백식당 오면짱아찌국수는 필수예요 ㅎㅎ여기서만 먹을 수 있거든요 ㅋㅋ​
+참기름이 뿌려져 있어서잘 섞어서 후루룩 먹으면 돼요​
+그냥 먹어도 맛있지만고기랑 같이 먹으면 더 맛있죠 ㅎㅎ​짱아찌국수는 새콤하면서도탱탱한 맛이 있어서 매력적이예요​
+된장찌개와 곤드레밥도 주문!어쩌다보니 사이드메뉴를전부 먹었네요 ㅋㅋ​
+곤드레밥은 같이 나온 양념장을 넣고비벼 먹으면 돼요 ㅎㅎ​
+두부가 듬뿍 들어 있는된장찌개도 조금 곁들이고요 ㅎㅎ​
+곤드레밥은 이렇게 양념이랑만비벼먹어도 맛있어요 ㅋㅋ​
+그렇지만 곤드레밥도 역시고기랑 먹으면 더 맛있겠죠?!​
+짱아찌국수와 곤드레밥도 맛 봤으니안창살, 늑간살, 덧살도차례로 구워먹어요 ㅎㅎ​
+얘기하다가 고기 굽는 걸 놓쳤더니사장님께서 도와주셨어요 ㅋㅋㅋ덕분에 안 태우고 먹었네요 ㅎㅎ​
+소금, 오이고추, 김치, 파채 등다양한 반찬이랑 고기랑 같이 먹어도최고는 소금에 찍어 먹는 것 같아요​소금이 일반 소금이 아니라녹차소금이라서 그런걸까요 ㅎㅎ​
+어느새 먹다 보니벌써 마지막 부위예요 ㅜㅜ​
+기름기가 있는 부위라서너무 기름질까 봐 걱정했는데한우 육즙과 기름기가 어우러져서딱 조화로울 정도였어요 ㅎㅎ​
+마지막은 유자 꿀물 서비스~술을 드시면 헛개차를안 드시면 유자 꿀물을 주셔서입가심까지 깔끔하게 끝냈어요!ㅎㅎ​
+이상, 역삼 고기집 회식 맛집칠프로칠백식당 역삼점 메뉴 주차 후기를 마칩니다~​
+​
+​</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/1616sm/223285390935</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2023. 12. 7. 10:11</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>박로우</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>역삼 맛집 진가와 프라이빗 초밥 강남 룸식당</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>​​​​​​
+정갈한 한상차림을 맛볼 수 있는일식 전문 역삼 맛집.
+한 줄 요약 - 진가와
+​​​연말이 되니 아늑한 분위기 속에서맛있는 음식을 먹으러 다니는 게 삶의 즐거움으로 자리 잡은 듯 하다.
+최근에는 여러가지 다양한 음식을 높은 퀄리티로 맛볼 수 있는 식당에 마음이 끌린다.​오늘은 1인분으로도 정갈하고 푸짐하게직접 공수한 면과 함께 초밥, 회 등 다양한 일식을 즐길 수 있는 역삼 맛집 ,진가와에 다녀 온 날에 대해 기록하려 한다.​​
+1. 외부
+​​[역삼역 이지카야 '진가와' 주소]서울 강남구 논현로94길 25-3 지하1층 .​건물 앞에 도착하면 바로 지하로 내려갈 수 있는외부 계단을 통해 매장으로 들어갈 수 있다.​​
+​​알고 보니 여기 역삼 맛집 은, 약 360년의 전통을 가지고 있는‘나가사키현 유일의 식품명장’인 토시오 장인이면을 항공으로 직접 공수하여 사용한다고 한다.
+과연 어떤 음식을 맛볼 수 있을지...!두근거리를 마음 안고 문을 열고 안으로 들어갔다.​​
+2. 내부
+​​들어가자 마자 아늑한 분위기의 매장이 펼쳐졌다.​차분한 블루 컬러의 벽과 우드톤 가구를 통해평온하고 잔잔한 감성의 인테리어로 이루어져 있다.혼밥할 수 있는 바 테이블은 물론 2인석, 4인석 등 여러 형태의 좌석도 간격 넓직하게 배치되어 있는 걸 확인할 수 있다.
+​
+​​면을 만들어 주시는 장인의 손도장이 자랑스럽게 매장 중앙에 전시되어 있었다.​우린 만지면 안되는 줄 알고 멀리서 지켜만 봤는데,기운을 직접 느낄 수 있도록 손을 대봐도 된다고 손도장 아래 적혀 있으니 안심하고 경험해 보시길 :)​​
+​​넓은 좌석공간 외에도 문을 닫고 프라이빗하게 식사할 수 있는 룸도 있다!그래서 송년회나 연말 모임 등 일행들과 프라이빗한 공간에서 즐길 수 있을 듯 하다.​우리가 갔을 땐 살짝 분위기를 보니, 업무 관련 미팅 등이 필요한 직장인과가족 단위의 손님들이 오붓한 시간을 가지고 계셨다.​​
+​​우리는 2인석에 안내 받아 자리에 앉았다.​테이블 위에는 시치미가 놓여져 있었고,바로 제공해 주신 물도 맹물이 아닌 찻물이라너무 맛있어서 호로록 호로록 계속 마셨다.​나에게 물이 맛있는 곳은 찐맛집이다 라는 명언을 날린 게 바로 이 때 함께한 친구인데 ㅋㅋ몇 모금 마시더니 여기 물 진짜 맛있다며어떤 차를 사용했을지 탐구하기 시작했다.나올 때 여쭤볼 걸...
+​
+3. 메뉴판
+Previous image
+Next image
+​​가져다 주신 메뉴판을 보며오늘의 저녁식사를 결정했다.​알찬 세트 구성과 함께 전문가가 직접 만든 면으로 만든 우동/소바 등 면요리,그리고 신선한 스시 및 사시미까지 다채롭게 즐길 수 있는 메뉴가 가득하다.곁들여 마실 하이볼/사케/생맥주와 같은 페어링 좋은 술들까지 다양하게 만나볼 수 있다.​우리는 특사시미&amp;스시정식과 사시미&amp;스시정식을각 1개씩 주문하기로 했다.함께 제공되는 면 요리는 냉국수와 우동 중에서선택할 수 있어 하나씩 다른 걸로 골라보았다 :)
+특사시미&amp;스시정식사시미&amp;스시정식
+​
+4. 음식
+   광고 후 계속됩니다.     다음 subject author   
+			취소
+		   역삼역맛집 진가와 정식 
+	재생 
+ 3 
+	좋아요 
+ 0 
+		좋아요
+		공유 하기
+	                       0:00:00    
+		재생
+		음소거
+	00:00
+	00:49
+ 실시간     
+		설정
+		전체 화면
+			해상도
+		 자동 480p   
+			자막
+		 사용 안함  
+			재생 속도
+		 1.0x (기본)   해상도   
+			자동 (480p)
+			720p
+		 HD    
+			480p
+			270p
+			144p
+		    자막 
+	설정
+			사용 안함
+		      옵션  글자 크기    배경색    재생 속도   0.5x 1.0x (기본) 1.5x 2.0x    
+        알 수 없는 오류가 발생했습니다.
+					도움말
+				   음소거 상태입니다. 
+            도움말
+            라이센스
+				고화질 재생이 가능한 영상입니다.
+				설정에서 해상도를 변경해보세요.
+			 더 알아보기 
+	0:00:00
+접기/펴기역삼역맛집 진가와 정식#역삼맛집#역삼역맛집#역삼회식#역삼단체회식#역삼역저녁
+​​잠시 미뤄뒀던 수다를 떠는 사이,주문한 음식들이 한 번에 우루루 쏟아져 나왔다!​캬... 테이블에 빈 자리가 없을 정도로 상을 꽉 채우는 두 타입의 정식 세트.
+​
+사시미&amp;스시정식
+​​뭐부터 먹어야 할지 몰라 잠시 멈칫했다가,우선 하나씩 살펴 보며 맛보기로 했다.​사시미&amp;스시정식오늘의 에피타이저냉소면미니 튀김회 6P초밥 3P후식 아이스크림(인절미)​​
+​
+사시미는 어떻게 또 광어, 연어, 참치로 딱 내가 좋아하는 회 3가지로 구성되어 있는지 받아 보자 마자 웃음이 절로 났다.모두 탱글탱글하고 고소하니 신선함이 느껴뎠다.​튀김 3종도 겉바속촉 제대로 익혀져서함께 나온 튀김용 간장에 찍어 먹으면끝 없이 들어갈 것 같이 맛있었다. ㅎㅎ​​
+​​이 구성에는 튀김우동을 선택했는데,맑고 고소한 맛의 육수와 탱탱쫄깃한 얇은 면발이맛이 조화롭고 속도 따듯해져서 좋았다.​​
+​​또한 역삼 맛집 의 초밥과 소바마끼도입에 착착 붙으면서 감칠맛이 느껴졌다!​개인적으로 소바마끼를 정말 좋아하는데면이 고소하면서 삼삼한 간이 딱 내 스타일이었다 :)​​
+특사시미&amp;스시정식
+​​특사시미&amp;스시정식오늘의 에피타이저냉소면회 8P미니 튀김초밥 6P후식 아이스크림(인절미)​​
+​​확실히 특정식 다운 보다 풍성한 구성에이것저것 구경하느라 눈이 쉴 새가 없었다.​먼저 가장 시선을 사로잡는 사시미&amp;스시 한 접시.전복이 주축을 이루면서 참치뱃살, 연어, 소바마끼,그리고 먹음직스러운 초밥들이 가득 채웠다.
+개인적으로 전복의 비린내를 잘 캐치하는 편인데이곳 역삼 맛집 전복은 1도 비리지 않고 맛있게 먹었다.​​
+​​튀김 3종은 동일하게 제공된다.​​
+​​그리고 식사로 나온 냉소바.​추운 날씨에 먹는 냉소바라 긴가민가했는데한 입 딱 먹자 마자 깜짝 놀랐다!시원하고 새콤한 육수와 쫄깃쫄깃한 소바면발이질리지 않고 숙숙 먹을 수 있는 풍미였다.​​
+디저트 아이스크림
+​​마지막으로 나온 디저트는콩가루가 토핑된 바닐라 아이스크림이었다.​어떤 조합일지 상상이 되지 않았는데고소한 콩고물과 달콤하고 부드러운 아이스크림이밸런스 좋게 어우러져 맛있게 먹을 수 있었다 :)​​
+​​마무리까지 참 좋았던 진가와.​먹음직스러운 비주얼의 정식을 맛보고 싶다면오늘의 역삼역 이지카야에 와보시는 건 어떨까?​​
+50m© NAVER Corp.더보기 /OpenStreetMap지도 데이터x© NAVER Corp. /OpenStreetMap지도 컨트롤러 범례부동산거리읍,면,동시,군,구시,도국가
+진가와 한국본점
+서울특별시 강남구 논현로94길 25-3
+​​- 역삼 맛집 '진가와 한국본점' 영업시간 -월~금 11:30 - 22:30(14:30 - 17:30 브레이크타임)(14:00 라스트오더)​토일 12:00 - 21:30(15:00 - 17:00 브레이크타임)(14:30 라스트오더)​
+다음엔 또 뭘 먹을까?#역삼역이지카야 #강남모임장소 #역삼맛집 #역삼동맛집 #역삼역점심 #강남회식
+​</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/dlrwnsaka/223294139086</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2023. 12. 16. 0:31</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>그린백</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>역삼동맛집 박속낙지 &amp; 회. 역삼역, 강남 횟집</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>바람이 불고 겨울비가 내리니 뜨끈뜨끈한 국물이 생각이 난다. 맑고 담백한 국물을 맛볼려고 신랑이랑 역삼역에서 만났다. 서울에서는 유일하게 박속낙지를 먹을 수 있는 곳이 있다고해서 역삼동맛집으로 갔다. 역삼역 4번 출구로 나와서 뒤쪽으로 돌아 첫번째 골목으로 들어가면 바로 보이는 초 역세권에 위치해있다. 
+주차장이 옆에 있고 주차도 가능하다. 언덕아래 1층에   자리해 있으며 점심특선을 알리는 입간판도 세워져있다. 입구에는 단체모임을 하시고 나가는 분들이 있었고 조금 기다렸다가 내부로 들어갔다.
+박속낙지 &amp;회(해물, 생선요리)(02 501 3833)2호선 역삼역 4번 출구에서 73m.매일 10:00~22:00라스트오더 21:55.주차, 예약, 무선인터넷, 남/녀 화장실 구분, 단체 이용 가능.​​​​​​​​​​​​
+가게내부 
+이곳은 역삼역횟집을 같이 운영하고 있으며 가게내부로 들어서니 바다위로 올라온 생선의 사진이 크게 보였다. 그리고 박 바가지위에 배우 싸인이 보였다. 박속을 긁어내서 나물로 볶아먹던지, 말려서 박고지로 먹어도 된다. 박속낙지 처럼 탕에 넣어서 먹어도 되며 박 껕질은 잘 말리면 박 바가지가 된다. 식 후 마시는 자판기 커피도 놓여있었다.
+내부는 엄청나게 넓었다. 우측으로는 강남 횟집 답게 신선한 해산물이 가득한 대형 수조가 있었고 끝에는 주방이 있었다. 안쪽에는 룸 공간도 있고 홀이 넓어서 단체모임, 역삼 회식장소로 딱 좋을듯 하다.
+대형낙지가 가득 들어가 있었고 벽에는 커다란 바닷가 사진이 걸려 있어서 마치 바닷가에 와있는 기분이 들었다. 
+룸 공간에도 박 바가지가 걸려 있는 풍경이다. 우리집에도 어릴적에 박 바가지가 많았었는데 보고 있으니 추억이 돋는다.
+룸공간도 테이블을 길게 두어서 넓었다. 좀더 프라이빗한 식사를 원한다면 룸으로 예약을 하면 되겠다.
+주인분이 충청도에서 직접 "박" 을 재배한다고 하니 더욱 믿고 먹을 수 있다. 박은 골다공증, 빈열, 심혈관질환에 좋으며 칼륨 성분을 함유해서 노폐물 배출과 붓기에도 좋다고 한다. 박속낙지와 대산낙지와의 만남을 먹어 보도록한다.​​​​​​​​​​​​
+메뉴판 
+역삼동맛집인 박속낙지 &amp; 회 에는 박속낙지 외에도 활어회들이 가득하다. 국물이 있는 박속낙지를 먹어도 되며 싱싱한 회를 먹어도 된다. 점심메뉴도 있으니 주변 직장인분들에게 좋으며 주류와 음료도 있다.
+벽에는 낙지와 박의 효능에 대해 적혀있다. 낙지는 스테미너 최고의 음식이며 박은 흥부전이 떠오르는 그 박이 맞다. 박 속에서 각종 보석이 나오지는 않지만 보석만큼 좋은 재료는 맞다. 원산지 표시도 잘 표기되어 있다.​​​​​​​​​​​​
+박속낙지(78000)진로소주(5000)감자옹심이(9000)
+테이블위에는 수저통과 티슈, 앞접시, 물컵과 소주잔이 놓여 있었다. 자리에 앉으니 물과 물티슈를 가져다 주었다.
+곧이어 기본반찬이 차려졌다. 두툼한 김치전, 아삭한 깍뚜기, 야들한 콩나물무침, 부추무침, 시래기무침이 나왔다.
+김치전은 겉은 바삭하고 속은 촉촉했으며 김치국물이 들어갔는지 엄청 고소하고 간도 잘되어 있었다. 기다리는 동안 먹기에 좋은 김치전 이었다. 깍뚜기도 양념이 잘 되어 있고 깔끔한 맛이다.
+삶은 시래기를 무친것 같은데 고소하면서 입맛 돋구는 토속 음식이다. 부추무침도 새콤달콤하며 맛깔났다.
+얇은 콩나물 무침은 식감이  아삭하고 좋았다. 개인마다 와사비 간장소스를 내어 주었다.​​​
+진로소주 
+비도 내리는 날 소주안주에 박속낙지 만한 것이 없다며 굉장히 행복해 했던 신랑은 오늘도 소주까지 사랑하신다.​​​
+박속낙지 (소)
+우리가 기다리고 궁금했던 역삼동맛집의 메인인 박속낙지가 나왔다. 뭐랄까? 닭한마리 메뉴처럼 파와 양파, 박속만 있는 맑은 국물이 나왔다.  
+국물이 끓으면 바로 문어 만한 낙지를 투입하고 한참을 끓여야 한다고 했다. 수조에 있던 커다란 낙지가 풍덩 담겼다.
+한참 끓이고 직원분이 와서 가위로 낙지를 먹기좋은 크기로 잘라 주었다. 크기가 커서 자르는데도 시간이 소요된다. 기다리고 있으니 더 시간이 더디게 가는것 같았다. 낙지 머리만 빼고 먹으면 된다.
+자른 후 먹으면 된다고 손수 앞접시에 퍼주었다. 국물 색상이 은은한 황금빛을 띄면서 맑았다. 
+직원분이 여기의 낙지는 낙지만 건져내서 먹기보다 숟가락으로 낙지와 국물을 같이 먹어야 한다고 했다. 숟가락으로 국물과 낙지를 같이 퍼서 먹어 보았다. 국물이 엄청 담백하지만 달다. 맛있는 음식을 먹으면 내입에 달다라는 말을 하는데 국물이 진짜 놀라울정도로 깊은데 깔끔했다. 박속과 낙지의 만남이 최고의 국물맛을 이끌어 냈다.
+낙지를 와사비장에 찍어서도 먹었는데 낙지가 부들거리고 야들하다. 낙지는 오래 끓이면 질겨지는데 박속이 들어가서 질겨지지 않는다고 했다.
+국물속에는 박속도 꽤 많이 들어 있었다. 끓여서 무를 오랫동안 끓인 식감이 났고 은은하게 박나물의 향이 났다. 박을 나물로만 볶아 먹었는데 탕에 넣으니 새롭고 맛이 좋았다.
+국물이 생명이니 아낌없이 먹어 주었으며 낙지도 양이 많아서 배터지게 먹었다. 
+국물은 끓이면 끓일수록 더 깊은 맛이 느껴지며 더 진했다. 감자도 큼지막하게 많이 들어가 있었고 감자도 포슬거리며 달다. 감자는 으깨어서 국물과 같이 먹어도 맛있다.
+마지막으로 낙지 머리를 건져내서 가위로 잘라준 후 바로 먹으면 된다고 했다. 다시 탕에 넣지 않고 바로 먹으면된다. 나는 먹지 못했는데 신랑은 내장이 들어가 있어서 엄청 고소하다고 했다.​​​
+감자옹심이 (1인분)
+내돈내산 
+박속낙지만 먹고 나오자니 아쉬워서 수제비와 옹심이 둘중 고민을 하다가 감자 옹심이를 주문했다.
+감자 옹심이는 탕에 넣은 후 떠오르면 먹으면 된다고 했다. 금방 떠오르는데 떠오르면서 점점 크기가 커진다. 내가 알던 감자옹심이가 아닌 찹쌀떡 같은 식감이었다. 건져내서 꿀을 입혀서 먹으면 꿀떡이 될듯한 식감이다. 아마 찹쌀이 들어간 감자 옹심이 인듯하다. 그래도 맛있어서 다 먹었다. 
+   광고 후 계속됩니다.     다음 subject author   
+			취소
+		   박속낙지 속 낙지  
+	재생 
+ 0 
+	좋아요 
+ 0 
+		좋아요
+		공유 하기
+	                       0:00:00    
+		재생
+		음소거
+	00:00
+	00:16
+ 실시간     
+		설정
+		전체 화면
+			해상도
+		 자동 480p   
+			자막
+		 사용 안함  
+			재생 속도
+		 1.0x (기본)   해상도   
+			자동 (480p)
+			1080p
+		 HD    
+			720p
+		 HD    
+			480p
+			270p
+			144p
+		    자막 
+	설정
+			사용 안함
+		      옵션  글자 크기    배경색    재생 속도   0.5x 1.0x (기본) 1.5x 2.0x    
+        알 수 없는 오류가 발생했습니다.
+					도움말
+				   음소거 상태입니다. 
+            도움말
+            라이센스
+				고화질 재생이 가능한 영상입니다.
+				설정에서 해상도를 변경해보세요.
+			 더 알아보기 
+	0:00:00
+박속낙지 속 낙지 
+​​​​​​​​​​​
+에세이 
+서울에서 박속낙지를 먹을 수 있는 유일한 역삼동맛집에서 담백하고 시원한 국물을 먹었다. 박속이 들어가 있어서 국물이 진짜 남달랐으며 내 속의 찌꺼기들이 사라지는 것 같았다. 박 농장을 직접 운영하신다고 하니 언제든지 박 을 맛볼 수 있는 곳이다. 박속낙지는 술을 많이 마시는 직장인분들에게 최적의 회식장소가 아닐까 싶다. 술마시기에 좋은 안주며 몸보신 하기에도 좋다. 이곳에는 이것 말고도 역삼역횟집, 강남횟집의 간판을 달고 있으며 데코레이션이 끝내주는 살아있는  회도 맛볼 수 있다. ​​​​​​​​​​​​​​​​#역삼동맛집#강남횟집#역삼역횟집#역삼역맛집#역삼역회식장소#역삼역연말모임#역삼역단체모임#역삼역몸보신#역삼역활어회​​​
+50m© NAVER Corp.더보기 /OpenStreetMap지도 데이터x© NAVER Corp. /OpenStreetMap지도 컨트롤러 범례부동산거리읍,면,동시,군,구시,도국가
+박속낙지 &amp; 회
+서울특별시 강남구 테헤란로25길 7 1층
+​</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/dorami7/223302949319</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>12시간 전</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Day Tripper</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>강남역 맛집 역삼역 점심 - 따끈한 우육도삭면과 맛있는 쇼마이</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>날이 추우니 생각나는 따끈한 국물칼로 베어 만든 두툼한 면이 맛있는신복면관의 우육도삭면을 먹으러 갔다. ​​
+50m© NAVER Corp.더보기 /OpenStreetMap지도 데이터x© NAVER Corp. /OpenStreetMap지도 컨트롤러 범례부동산거리읍,면,동시,군,구시,도국가
+신복면관
+서울특별시 강남구 테헤란로4길 6 B126호
+서울 강남구 테헤란로4길 6 B126호강남역센트럴푸르지오시티 오피스텔 B1강남역 1번출구에서 1분 이내 거리​영업 시간: 매일 11:00~22:00브레이크타임 없음​​
+상큼냉채가 너무 맛있는 강남역 맛집 역삼역 점심 신복면관다양한 중국 가정식도 매력적이지만상큼냉채가 정말 내 입에 딱인 중국식당이다. 
+대표메뉴는 도삭면국물이 있는 우육도삭면과 국물이 없는 (하지만 온면) 유발도삭면이다.볶음밥과 덮밥 메뉴도 맛있을 것 같고 다양한 중국 가정식 요리가 있어서공기밥과 같이 먹기 좋아보인다. 
+깔끔한 신복면관 가게 내부 인테리어여긴 브레이크타임이 없어서 이날 한 3시쯤 갔는데 그래도 손님이 좀 있었음점심 시간에는 정말 자리가 안 나는 강남역 맛집. ​​
+4인이 앉을 수 있는 룸벽지도 예쁘고 조명도 예쁘고소규모 회식하기 딱 좋아보인다. ​​
+주문은 테이블에 장착된 패드로 주문계산은 나가기 전 카운터에서 한다. 추운 날이어서 우육도삭면이 눈에 들어왔다.​​
+주문한 메뉴:상큼냉채 1개 8,000원쇼마이 1개 8,000원우육도삭면 1개 9,800원사실 한국에서는 딤섬 전문점 아니면냉동 쇼마이가 나오는 경우가 많아잘 안시키는데 궁금해서 시켜보았다. ​​
+기본으로 나오는 땅콩 볶음과 자차이자차이가 달지 않고 상큼하다. ​​
+제일 먼저 등장한 우육면국물이 육개장같은 느낌인데 맛은 전혀 다르다 딱 대만 우육면 스타일​​
+수제비 스타일로 울퉁불퉁굵기가 들쭉날쭉한 도삭면...못 참죠?고기 고명은 푹 익어서 그냥 입에서 사락 녹음​​
+굉장히 부드럽고 연했던 소고기국물과 같이 떠먹으면 귯~​​
+면은 보기엔 쫄깃해보이는데생각보다 똑똑 끊어진다. 칼국수와 조금 비슷하긴 이름도 비슷하다. ㅎㅎ​​
+칼국수는 면 두께가 일정하다면도삭면을 이렇게 울퉁불퉁해서 다양한 식감이 느껴지는 게 차이인 것 같다.​​
+사랑하는 신복면관의 상큼냉채그냥 상큼하기만 한 게 아니라 고소하기도 하고 감칠맛 끝판왕.참기름+중국식초 느낌?거기 마늘? 집에서 한 번 만들어봐야겠다. ​​
+오이, 목이버섯과 건두부채,당근, 파 등등 다양한 식재료가 들어 있다. ​​
+사진 보니깐 또 먹고 싶어지는 상큼냉채양이 굉장히 많게 나오는데 다 먹음...​​
+마지막으로 등장한 쇼마이냉동쇼마이 나오면 앞으로 이 집에선딤섬? 만두류는 안 먹어야겠다 생각했는데의외로 제대로 정석 쇼마이가 나왔다. ​​
+새우와 돼지고기가 꽉 찬 쇼마이다섯 알 모두 모양이 살짝씩 다른 게오히려 더 수제 느낌이라 좋다. ​​
+탱글탱글한 식감+고소함과 담백함 사이의 맛기대 안했는데 웬만한 딤섬집 쇼마이보다 맛있다.간이 적절히 되어 있어서 뭘 찍어먹지 않고 그냥 먹어도 맛있음.​​
+신복면관에서는 샤오롱바오 간장처럼생강채를 넣어 주는데원래 쇼마이에서도 생강향이 살짝 나는데다생강채를 같이 먹으니 너무 잘 어울렸다. ​​​
+상큼냉채, 쇼마이 곁들여서 우육도삭면 먹기여긴 메인메뉴도 맛있지만사이드로 먹을 메뉴들이 다 너무 훌륭해서이것저것 먹고 싶어서 주문하기 곤란한 정도다. ㅎㅎㅎ​나오면서 벌써 다음에 먹을 메뉴 미리 정함. ㅎㅎ​​
+딤섬 메뉴에 있는 만두를 전부 먹어보고 싶을 정도로 훌륭했던 쇼마이와 따끈한 우육도삭면,상큼냉채가 맛있었던 강남역 밥집 신복면관​​
+   광고 후 계속됩니다.     다음 subject author   
+			취소
+		   강남역맛집 신복면관 
+	재생 
+ 2 
+	좋아요 
+ 1 
+		좋아요
+		공유 하기
+	                       0:00:00    
+		재생
+		음소거
+	00:00
+	00:43
+ 실시간     
+		설정
+		전체 화면
+			해상도
+		 자동 480p   
+			자막
+		 사용 안함  
+			재생 속도
+		 1.0x (기본)   해상도   
+			자동 (480p)
+			1080p
+		 HD    
+			720p
+		 HD    
+			480p
+			270p
+			144p
+		    자막 
+	설정
+			사용 안함
+		      옵션  글자 크기    배경색    재생 속도   0.5x 1.0x (기본) 1.5x 2.0x    
+        알 수 없는 오류가 발생했습니다.
+					도움말
+				   음소거 상태입니다. 
+            도움말
+            라이센스
+				고화질 재생이 가능한 영상입니다.
+				설정에서 해상도를 변경해보세요.
+			 더 알아보기 
+	0:00:00
+접기/펴기강남역 밥집 신복면관강남역맛집 신복면관
+재방문 의사 유!
+​
+​</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/arasi56/223297843724</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2023. 12. 19. 23:14</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>진땅</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>강남역맛집 고기집 함양숯불회관 본점, 지리산 흑돼지가 맛있는 역삼역맛집</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>강남역맛집 고기집함양숯불회관 본점지리산 흑돼지가 맛있는 역삼역맛집
+서울 강남구 역삼로 140 지상1층0507-1420-9234​정기휴무 (매주 일요일)[점심특선] 평일 11:30~14:00토 12:00 - 01:00 / 월~목 11:30 - 01:00브레이크타임 14:00 - 16:00 ​*주차정보건물 지하주차장에 무료 주차가능하나 17:00 이후 부터 무료임17시 이전에는 인근 유료 주차장 이용
+함양숯불회관 본점
+서울특별시 강남구 역삼로 140 지상1층
+ 흑돼지를 먹었던 기억이 딱!!두번 이었던거 같은데최근 역삼초교 근처 지리산 흑돼지가 맛있다는 고기집소문이 잠실까지 들려오니 오늘 저녁은강남역맛집 함양숯불회관 본점으로 방문하게 되었다. ​강남역 신분당선 4번 출구에서 도보 11분 역삼역 3번 출구에서 도보 11분 거리에 위치하고 있고집에서는 버스로 한번에 달려가니강남에서 일하는 윰언니를 섭외하여 저녁을 함께했다. ​
+오픈한지 얼마 되지 않았다고 들었는데계속해서 들어오는 손님들로 북적이는 강남역맛집 고기집 함양숯불회관​조금만 늦었다면 웨이팅 할 뻔했네!!그래서인지 다들 예약하고 방문하는 분위기였다.​프라이빗한 룸 공간도 보유하고 있는데모두 손님들이 계서서 구경도 못했다.ㅋ룸 정보는  4-6인룸 2개, 10인 이상 룸 1개​
+함양숯불회관 본점의 고기 숙성 공간 ​지리산 흑돼지를 웻에이징으로 72시간, 드라이에이징으로 120시간 교차숙성하여 돼지고기의 풍미와 맛을 극대화 하였다.​프리미엄 돼지고기를 맛볼 수 있는 강남역맛집 고기집 ​
+주문은 각 테이블 비치된 테블릿을 이용하면 된다.매장 이용 안내에 대한 간단한 정보를 읽어보면 좋다.
+강남역맛집 고기집 함양숯불회관 메뉴
+Previous image
+Next image
+시그니처 지리산 흑돼지 소금구이 한 접시가 매우 핫!외에도 꽃 목살, 삼겹살, 고추장 양념구이 등이 있고고주창찌개, 김치수제비등의 곁들임 메뉴도 다양했다.​메뉴판에 김치볶음밥 5천원이라고 되어있는데실제 주문시에는 3천원으로 매우 가성비 좋았고김치수제비는 인기 폭발!!품절이 빠르니 빠르게 주문할 것!!​오전 11:30 - 01:00까지는 점심 특선메뉴제육볶음, 한우육회비빔밥, 한우차돌된장찌개 지리산 흑돼지 고추장 찌개와 함께든든한 점심 한 끼를 즐길 수 있다.​
+소식좌들은 소금구이 한 접시를 주문한다.보통 언니와 400g정도 먹으니여자 둘이서 500g에 사이드 메뉴 하나면 충분할 듯​
+6개의 고기 소스와 5개의 밑반찬,  파절이 무침강남역맛집 고기집의 정갈한 반찬 세팅에 매우 마음에든다.​
+그리고 밑반찬은 셀프코너를 이용하여 리필 가능!깻잎과 궁채 장아찌가 깔끔 상큼하여 너무 맛있었고새콤 매콤한 파무침 맛집이었다.파무침을 셀프로 리필하려고 했는데파무침은 직원분에게 요청하면 맛있게 무쳐준다.​
+영롱한 지리한 흑돼지 소금구이 한접시 등장경건한 마음으로 접시를 들어본다. ㅋ쪽파가 곁들임으로 나온것이 완전 치트키!!쪽파추가도 가능했음 좋겠다!​
+돼지고기의 가장 맛있는 부위인숙성 삼겹살, 목살, 어깨살의 모듬 구성한 접시의 가격은 59,000추가 반접시는 30,000원​
+윰언니가 나보다 고기잘알​첫 점을 맛보더니 이거 정말 삼겹살 맞니?!너무 부드러운데! 맛있다!​일찍이 식욕을 잃은 언니에게서 맛있다는 말을 들을 때마다내가 좋은 맛집으로 잘 데려왔구나 뿌듯하다.​
+언니 이거 그냥 삼겹살 아니잖아~~지리산 흑돼지잖아~~!!내가 키운 흑돼지도 아니면서 괜히 으스댄다.​지금껏 다녀온 곳 top5에 들어갈 것 같다면서윰언니가 매우 만족해한다.​
+준비된 곁들임 찬과 여러 소스들과베리에이션해가며 맛있게 즐기는 고기집강남역맛집 함양숯불회관 본점​막장도 맛있었고 들깨가루도 굿굿!특히 비싸다는 귀한 가리비 알젓도함께 곁들여 먹으니 최고의 조합이었다.​
+불판의 구조도 깔끔했는데사이드 불판에 따로 김치를 구울 수 있고이곳에 김치볶음밥을 만들어 먹을 수도 있다!​
+치즈폭포 계란찜아~고기먹을때 계란찜은 필수죠!!날이 추우니 따듯한 계란찜이 아주 꿀맛입니다!!뜨거울 때 먹으면 아주 천상의 맛치즈를 더해 고소한 맛도 아주 잘 어울린다.​
+소식좌들은 흑돼지 500g 녹다운눈 펑펑 내리는 날씨에 물냉면은 추워추워~후식메뉴로 선택한 메뉴는 바로 더덕구이이다. 굽지 않고 바로 먹어도 생 더덕은 참 맛이 좋다 ㅋ​
+도라지와 더덕은 내가 참 좋아하는 음식이다.이곳에서 사이드 메뉴로 더덕구이가 있어보자마자 메뉴 담기 클릭 클릭!!어떻게 양념을 했는지 몰라도숯불향이 살짝 베이니 완전 고추장 불고기 맛이 난다.뜨끈하며 아삭 쫄깃하게 씹히는 더덕의 맛이 좋다.​
+그리고 마음에들었던 할머니집 감성의 수저세트이것이 바로 강남역맛집 고기집 함양숯불회관 본점 갬성 아이가~!!식욕잃은 윰언니가 인정한 강남역 고기맛집!​
+   광고 후 계속됩니다.     다음 subject author   
+			취소
+		   강남역맛집 고기집 함양숯불회관 본점, 지리산 흑돼지가 맛있는 역삼역맛집 
+	재생 
+ 1 
+	좋아요 
+ 1 
+		좋아요
+		공유 하기
+	                       0:00:00    
+		재생
+		음소거
+	00:00
+	00:36
+ 실시간     
+		설정
+		전체 화면
+			해상도
+		 자동 480p   
+			자막
+		 사용 안함  
+			재생 속도
+		 1.0x (기본)   해상도   
+			자동 (480p)
+			720p
+		 HD    
+			480p
+			270p
+			144p
+		    자막 
+	설정
+			사용 안함
+		      옵션  글자 크기    배경색    재생 속도   0.5x 1.0x (기본) 1.5x 2.0x    
+        알 수 없는 오류가 발생했습니다.
+					도움말
+				   음소거 상태입니다. 
+            도움말
+            라이센스
+				고화질 재생이 가능한 영상입니다.
+				설정에서 해상도를 변경해보세요.
+			 더 알아보기 
+	0:00:00
+접기/펴기강남역맛집 고기집 함양숯불회관 본점, 지리산 흑돼지가 맛있는 역삼역맛집
+강남역맛집 고기집 함양숯불회관 본점, 지리산 흑돼지가 맛있는 역삼역맛집#강남역맛집#강남역고기집#함양숯불회관본점#흑돼지맛집#역삼역맛집#강남연말모임장소
+사장님도 홀 돌면서 열심히 일하시고 직원분들도 고기 맛나게 구워주고 서비스 매너 온도도 너무 좋아서 더 열심히쓰는 리뷰!!!​즐거운 연말 모임은 강남역, 역삼역맛집 프리미엄 지리산 흑돼지 숙성고기가 있는함양숯불회관과 함께해요~예약 필수 필수~!!
+​</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/aisama2/223277705523</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2023. 11. 29. 7:45</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>뿌뿌</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>역삼역 점심 맛집 동봉관 돼지곰탕에 잔술</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>역삼역 점심 맛집 동봉관 돼지곰탕에 잔술​
+안녕하세요 뿌뿌입니다​역삼역 근처에서 점심 맛집 찾고 계시는 직장인들과 잇님들을 위해 돼지곰탕 맛있는 동봉관을 소개해 드리려고 해요^^​​동봉관
+유기그릇에 정갈하게 담아져 나와 더욱 먹음직스러웠는데요~​동봉관 돼지곰탕은투명하고 맑은 국물이 인상적이었어요​맛있게 익은 김치 한 점 올려 먹으면완전 꿀맛^^​​
+50m© NAVER Corp.더보기 /OpenStreetMap지도 데이터x© NAVER Corp. /OpenStreetMap지도 컨트롤러 범례부동산거리읍,면,동시,군,구시,도국가
+동봉관
+서울특별시 강남구 도곡로37길 38
+✔️주소 : 서울 강남구 역삼동 779-1✔️영업시간 월~금 11:00~21:00 / 토, 일 11:00~18:00월~금 브레이크 타임 있고요, 주말은 브레이크 타임 없어요✔️휴무일 : x 연중무휴✔️주차장 : 있음✔️화장실 : 밖으로 나가서 건물 1층 (남녀 공용 / 비번 없음)​​​
+줄 서는 맛집이었네요일찍 방문해서 웨이팅 없이 들어갔어요 ㅎㅎ​​
+외관
+구. 옥동식 식당이 동봉관으로 바뀐 거예요​​
+역삼역 1번 출구에서 도보 1.1km / 차로 1.4km(7분) 떨어져 있는 곳에 위치해있고요한티역에서 오기에도 괜찮아보여요​​
+동봉관 기준으로 좌우 골목 사진이에요​​
+전용은 아니라고 하셨는데..건물에 주차장이 있답니다 ​6~7대 선착순 가능했고요(밥 먹다 말고 빼줘야 할 수도 있음)​앞에 주차된 차를 빼야 하는 경우,일일이 전화를 해야 해요​주말 일요일 방문^^주차 자리 있으면 먹고, 아니면 말자~ 하고 온 건데일찍 방문해서.. 주차할 수 있었네요​​
+내부
+문을 열고 들어오면..돼지곰탕집이 맞나? 싶을 정도로감성 가득한 분위기예요​테이블은 바 형태로 되어있어서나란히 앉아서 식사를 했답니다​​
+메뉴
+맑은 곰탕 단일 메뉴였고요보통이냐 특이냐 사이즈 선택만 하면돼요​그리고, 눈에 띈 잔술 3천 원 ㅋ​​
+유기그릇으로 고급짐을 더했네요​​
+김치는 집게로개인 접시에 덜어 먹었는데요먹기 좋은 크기로 잘라 있어서먹기도 편하더라고요​처음에 조금 덜어서 맛보았는데맛있어서 듬뿍 리필~​​
+보통 사이즈로 주문했어요​​
+국물이 어찌나 맑고 투명한지 말아져 있는 밥이 보일 정도였고요​얇고 큰 돼지고기가 여러 장 겹쳐있어요​​
+동봉관 오는 길에 YOU에게 미리 운전대를 넘겼는데.. (빅 피처? ㅋㅋ)미안~ 내가 한잔 마셔볼게^^​잔술을 주문하면, 직원분이 술 주전자를 가지고 와서 따라주면서잔술에 대해 설명해 주셨어요~​​
+황금 보리소주이며,알코올 도수는 17도^^ 잔술을 따라준 술잔이 마음에 들었고술맛은.. 아주아주 깔끔했어요​돼지곰탕 한 그릇에 잔술 한잔 딱 좋네요~ ㅎㅎ​​
+기름끼 살짝 뜬 국물은 고소하면서도 구수했어요​누린내 같은거 전혀 없고담백해서 물리지가 않는답니다​​
+김치도 맛있어서 먹고 먹고 또 먹고~그냥 후루룩 빨려 들어가요 ㅎ​​
+원산지가 남원 지리산인 돼지고기는큼직한 크기에 두께감은 얇기 때문에반으로 접어서 먹으니까 편했고​지방이 적당히 섞여있어 더욱 고소하고 쫄깃하니 맛있었어요​​
+매운 소스 찍어 먹거나 김치 한 점 돌돌 말아 먹어도 맛있답니다​국물이 텁텁하지 않고 깔끔 맛있어서그릇째 들고 드링킹까지 한건 안 비밀^^​
+​음식이 빨리 나오는 편이고토렴식이라서 엄청 뜨겁지도 않아한 그릇 먹는 시간도 짧은 편!​웨이팅 하더라도 회전율이 빠를 것 같았어요​​
+점심 메뉴로도 좋고~퇴근 후에, 따뜻해지는 돼지곰탕 한 그릇에가볍게 잔술 한잔 생각날때 방문해도 좋을동봉관을 역삼역 맛집으로 살포시 추천드려볼게요 :)​​
+#동봉관 #맑은곰탕 #잔술#역삼역점심맛집 #역삼맛집​​​</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/crispynote/223298266120</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2023. 12. 20. 12:17</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>유나스테이블</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>서울 역삼역 닭도리탕맛집 역삼농원 역대급 숯불의 찐맛</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>​​내가 좋아하는 음식 중 하나가 닭도리탕이다.집에서 만들어 먹는 것도 맛있지만,외식으로 먹을 때는 특별한 감칠맛이 있다.그래서인지 서울 닭도리탕맛집들은 거의 다 가봤다.​​
+​​서울 닭도리탕맛집 양대 산맥으로 불리는 곳부터나만의 시크릿 맛집까지!근데 이번에 내 마음 속 1위 맛집이 흔들리고 말았다.벌써 입소문이 난 역삼역맛집 역삼농원 때문!!​​
+​​이곳은 다른 곳과는 달리 닭을 숯불로 초벌 한 후양념에 지글지글 끓여 낸다.초벌의 효과가 얼마나 클지 궁금했는데그야말로 기대 이상!!근데, 역삼농원은 닭도리탕맛집이지만사이드 메뉴도 엄지 척!​​
+​​오늘은 이곳에서 반드시(!!) 먹어야 하는시그니처 메뉴 플러스++이를 더 빛나게 하는 사이드 메뉴까지 소개한다.​​​
+​
+​
+역삼농원 숯불닭도리탕​오픈하자마자 인기 폭발 역삼역맛집닭도리탕 덕후라면 반드시 가야 할 필수 코스
+​웨이팅이 많은 역삼역맛집이라는 이야기를 들어 일부러 사람이 없는 오후 2시 30분에 갔다.당연히(!) 점심시간을 훌쩍 넘은 터라, 내가  갔을 때 점심식사를 마무리하는 테이블 하나만 있었다.​​
+​​근데 놀라운 건... 그 시간에 배달이 왜 그리 많은 지?오후 2시 반에...닭도리탕을 배달 주문해 먹는다고?놀랍다 놀라워!참고로, 역삼농원은 배민, 쿠팡이츠 등에서 배달 주문 가능하다. ​​​▶ 영업시간매일 / 11:00-04:00
+​​※ 별도의 브레이크 타임은 없다.식사 시간에는 손님이 상당히 많은 역삼역맛집이다.내가 2시 반에 가니 한적했다. 근데 4시부터 다시 손님들이 모이기 시작한다.늦게까지 운영하는 만큼 연말회식 2차, 3차 장소로도 GOOD!​
+▶ LOCATION &amp; DECOR
+​
+매장 위치
+50m© NAVER Corp.더보기 /OpenStreetMap지도 데이터x© NAVER Corp. /OpenStreetMap지도 컨트롤러 범례부동산거리읍,면,동시,군,구시,도국가
+역삼농원
+서울특별시 강남구 논현로 333 1층 역삼농원
+예약
+​​역삼역 2번 출구로 나와 양재 방향으로 걸어간다.10분 정도 직진하면 매장이 보인다. 레트로풍 분위기의 매장 간판이 시선을 사로잡는다.​​
+​​평소 웨이팅이 있다는 것을 알 수 있는 의자들이 매장 앞에 보인다.​참고로, 따로 주차 공간은 없다.역삼역 맛집들은 주차가 쉽지 않으니, 개인적으로 대중교통 이용을 권한다.
+​
+​
+매장 내. 외부 분위기
+매장 외부와 통일된 느낌의 내부 인테리어이다.빈티지스러운 느낌이 좋다.​​
+​​레트로 느낌이지만, 위생 관념은 철저하다.불판-테이블-의자 모두 깨끗!반짝반짝 광이 나는 것이 마음에 든다.​​
+​​가끔 닭도리탕맛집들을 가면 테이블에 양념이 묻어 있고, 불판을 안 닦아 지저분한 곳들도 있는데 여기는 아주 깨끗하다.예민보스가 있는 단체모임 장소로도 손색이 없다.​​
+​​역삼역 맛집임을 인증하는 연예인 사인들!!근데 블락비 재효 사인도 있다.오오오!! 단골 맛집이라니!!더 기대가 된다.​​
+​​참고로, 의자는 수납의자이다. 코트를 안에 두면 냄새 배는 것을 막을 수 있다.​​
+​​레트로 느낌을 주기 위해 두루마리 휴지를 올렸다.근데, 평범한 두루마리 휴지가 아니다.완전 귀요미 휴지이다.지금은 크리스마스 분위기를 내고 있는데, 크리스마스가 지나면 어떤 휴지를 올려놓을지 궁금해진다.​​
+​​기본 찬 그릇, 수저 그리고 컵 등은 테이블 옆 선반에 가지런히 놓여 있다.​​
+▶ FOOD &amp; MENU 
+​
+메뉴판 
+이곳에서는 무조건 닭도리탕을 먹어야 한다.​​
+​​숯불 곱도리탕, 닭도리탕 그리고 모닥치기가 시그니처 메뉴이다.혼밥에 대한 걱정도 뚝!1인 닭도리탕도 있다. 물론, 1인 닭도리탕 배달 주문도 가능하다.​​
+​​닭은 추가 주문 가능하며, 그 외 주먹밥, 떡, 당면, 우동사리 등은 추가할 수 있다.숯불닭목살구이, 오뎅탕, 닭연골튀김 등의 구이·안주 메뉴와 부추전, 야채튀김, 계란말이 등의 사이드 메뉴도 있다.​​
+​​소주, 맥주, 하이볼 등의 주류는 물론, 다양한 음료도 준비되어 있어 연말회식 혹은 단체모임하기 좋다.​​​
+음식평
+주문 음식 / 음료▼▼▼
+​숯불 닭도리탕맑은 오뎅탕부추전제로콜라허벅하이볼​
+​우리는 필수 주문 메뉴, 숯불 닭도리탕 주문!!총 3단계로 맵기 조절이 가능하다.나는 2단계를 주문했는데, 신라면과 열라면 중간 즈음의 맵기이다.​​
+​​식당 오기 전에는 숯불닭목살구이를 주문하려고 했는데, 내가 간 날은 너~~무 추웠다.그래서 맑은 오뎅탕과 부추전 주문!!​​기본 반찬기본 반찬은 3가지이다.​​
+​​두부, 어묵볶음 그리고 김치.마치 엄마가 만들어준 듯 반찬 하나하나 맛있다.​​
+​​참고로, 레트로 느낌 유리병에 담긴 건 보리차이다.​​허벅 하이볼과 제로콜라허벅 하이볼은 전통주인 허벅술을 이용한 하이볼로 꿀을 넣어 달콤한 맛이 있다.​​
+​​달달~하니 여자들이 좋아할 맛이다.​​
+​​만약 데이트 장소 혹은 여자친구들과의 연말 회식장소로 여기를 선택했다면 이거 추천한다.​​맑은 오뎅탕오뎅탕이 나오는 순간 나도 모르게 웃음이 났다.​​
+​​이게 뭐야?!?누구 아이디어인지는 모르겠지만 머리가 좋다!오뎅 국물을 쉽게 따를 수 있는 냄비에 담겨 나온다.​​
+​​오뎅은 다양한 모양으로 있다.대파와 양파를 넣어 은은한 단맛이 좋다.큼직한 표고버섯과 홍고추는 감칠맛을 더한다.​​
+​​이는 매운맛은 거의 없고 오뎅의 감칠맛과 양파의 단맛이 느껴지는 국물로 겨울철 사이드 메뉴로 좋다. ​​부추전역삼농원에서 필수 주문 사이드 메뉴이다.활용도가 백만점짜리이다.​​
+​​부추전은 완전 바삭바삭!!부추를 이렇게 많이 넣었는데, 튀김처럼 바삭하다.가장자리는 물론, 중심부까지 바삭하다.​​
+​​양도 꽤 많아 서로 먹겠다고 눈치 싸움할 일이 없다. ​​
+​​양념장에 찍어 먹어도 맛있지만, 부추전 자체에 간이 잘 되어 있어 그냥 먹어도 맛있다.​​숯불 닭도리탕오늘의 하이라이트 닭도리탕!!​​
+​​나는 재료를 추가하지 않았는데, 기본적으로 야채, 버섯, 감자, 우동사리가 가득 들어있다.2명이서 가면 기본 구성으로도 충분하다.3명이서 먹는다면 닭, 우동사리를 추가해도 좋다.​​
+​​닭은 숯불에 초벌했기 때문에 바로 먹어도 된다.근데 닭을 자세히 보니 숯에 구워진 것이 보인다!!​​
+​​이거 완전 기대되는데?!?양념이 끓기 시작하자마자 바로 공격!​​
+​​한 입 먹어보니 오! 확실히 다르다!보통의 닭도리탕은 닭고기가 맛있다는 생각이 들기보다 양념이 맛있다는 생각이 든다.근데 이건 닭고기 자체에서도 은은한 불향이 느껴져 맛있다. ​​
+​​그리고 초벌을 해서일까?양념이 더 쏙쏙 배여 있다.​​
+​​가끔 어떤 닭도리탕 맛집을 가면 닭과 양념이 따로 노는 듯한데 이건 양념이 쏙쏙 배어 있으니 더 맛있다.뿐만 아니라, 살도 더 탄력 있는 식감이다.​​
+​​촉촉하면서도 탄력이 있다.퍽퍽살조차도 촉촉하게 느껴질 정도이다. 만드는 사람 입장에서는 초벌을 해야 해서 번거롭겠지만, 먹는 사람 입장에서는 이게 찐맛이구나!​정신없이 닭도리탕을 먹다보니 줄 서는 이유, 그리고 오후 2시 반에도 배달 주문해 먹는 이유를 알겠다.​​
+   광고 후 계속됩니다.     다음 subject author   
+			취소
+		   역삼농원 숯불 닭도리탕 찐맛! 
+	재생 
+ 0 
+	좋아요 
+ 0 
+		좋아요
+		공유 하기
+	                       0:00:00    
+		재생
+		음소거
+	00:00
+	00:49
+ 실시간     
+		설정
+		전체 화면
+			해상도
+		 자동 480p   
+			자막
+		 사용 안함  
+			재생 속도
+		 1.0x (기본)   해상도   
+			자동 (480p)
+			1080p
+		 HD    
+			720p
+		 HD    
+			480p
+			270p
+			144p
+		    자막 
+	설정
+			사용 안함
+		      옵션  글자 크기    배경색    재생 속도   0.5x 1.0x (기본) 1.5x 2.0x    
+        알 수 없는 오류가 발생했습니다.
+					도움말
+				   음소거 상태입니다. 
+            도움말
+            라이센스
+				고화질 재생이 가능한 영상입니다.
+				설정에서 해상도를 변경해보세요.
+			 더 알아보기 
+	0:00:00
+역삼농원 숯불 닭도리탕 찐맛!
+​​그리고 여기 양념이 진짜 맛있다. 적당히 매콤한 맛.여기에 숯불로 초벌 한 닭고기 맛이 국물에 배어 진한 감칠맛이 좋다. ​​
+​​부추전은 그냥 먹어도 맛있지만, 닭도리탕과 함께 먹어야 한다.​​
+​​부추전 위에 닭고기 한 점.여기에 양념도 듬뿍!!이렇게 먹으면 매콤-담백-고소-감칠맛 폭발!입안에서 감칠맛이 팡팡 터진다.​​
+​​닭도리탕에 있는 야채를 부추전에 올려 먹어도 좋다.​​
+​​남편은 어묵도 여기에 찍어 먹는다.밥도둑이 따로 없다.​​
+​​보는 눈만 없으면 그릴드 팬을 들고 흡입하고 싶다. 이곳에서 먹은 지 며칠 되지 않았는데 또 생각난다.아무래도 내 닭도리탕 맛집 1위가 바뀐 듯하다.​이날 나는 소문을 듣고 일부러 역삼역까지 갔다. 근데 너무 마음에 들어 다음 주 가족들과 연말 단체모임에서 또 먹을 생각이다. 그때는 배민으로 주문할 생각이다. ​​
+​​다음주 단체모임에서는 사람도 많으니 농원 숯불닭볶음탕에 야채튀김과 순대까지 포함되어 있는 농원 모닥치기로 주문해야겠다.또 먹을 생각하니 벌써부터 신난다.​참고로, 지금 네이버 플레이스, 인스타그램 이벤트도 진행하고 있으니 참여하면 음료가 서비스!​​
+*본 포스트는 식사권을 받아 직접 먹은 후 작성한 솔직한 후기입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/explore5468/223277407023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2023. 11. 28. 21:13</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>핫플레이스</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>연말모임하기 좋은 역삼역 맛집</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>지난 휴무때는 오랜만에 친구들과 만나 사전에 미리 서칭 해 두었던 역삼역 맛집에서 식사를 즐겼어요. 잡내는 커녕 하나같이 정성 가득하고 퀄리티 좋았던 중식 코스요리를 누리고와 소개 해 볼게요.​1. js가든 센터필드점​주소 : 서울 강남구 테헤란로 231 센터필드번호 : 02-6985-7227영업시간 : 매일 11:00 - 22:00대표메뉴 : 목화솜탕수육 45,000원
+50m© NAVER Corp.더보기 /OpenStreetMap지도 데이터x© NAVER Corp. /OpenStreetMap지도 컨트롤러 범례부동산거리읍,면,동시,군,구시,도국가
+js가든 센터필드점
+서울특별시 강남구 테헤란로 231 센터필드
+이날 식사를 즐겼던 js가든 센터필드점은 지하철 역삼역 8번출구에서 도보로 6분정도 걷다보면 도착이 가능했어요. 센터필드 건물 2층에 자리잡고 있어 안으로 입장한 뒤에 에스컬레이터를 타고 이동 해 줬답니다.
+가게 외관에는 친절하게 영업시간부터 정보가 깔끔하게 정리되어 있었어요. 주차는 건물 내에 가능했고 식사는 11시부터 22시까지였고 브레이크타임이 15시부터 17시30분까지라고 하니 참고 해 주세요.특히나 연말모임에 안성맞춤인 이유가 콜키지프리가 가능하다는점이었어요.
+안으로 입장을 하자마자 보테니컬한 큼지막한 화분들과 깔끔한 홀이 반겨줬어요. 고급스러움과 캐주얼함이 적절하게 어우러진 분위기였고 테이블 간격도 충분하게 배치되어 있어 서로 방해 받지 않고 식사가 가능했어요.
+게다가 아예 구분되어 있는 프라이빗한 룸도 세팅되어 있어 단체 모임이나 중요한 식사 모임을 가지기에도 충분 해 보였어요. 친절하게 안내 해 주시는 직원분들까지 서비스 정신도 확실했어요.
+수 많은 테이블 만큼이나 단독룸이나 단체룸이 잘 준비되어 있어 부담이 없었어요. 데이트는 물론 비즈니스 모임이나 가족 식사까지 책임지기 충분한 역삼역 맛집 그 자체였답니다.
+얼른 자리를 잡고 앉아 이날 곁들일 디너코스 튤립을 오더 해 줬답니다. 가장 먼저 아홉가지 재료들을 가지런하게 세팅 해 주시는 가든냉채09가 등장해 입맛이 확 살아나는 기분이었어요.
+어떻게 보면 톡 쏘는 냉채 향이나 맛은 호불호 갈릴 수 있겠지만 이것만큼은 달랐어요. 식재료 본연의 맛이나 식감이 잘 살아있어 술술 넘어갔고 느끼함을 덜어주는 향미까지 완벽했죠.
+오도독 씹히는 전복의 부드러움부터 연어와 상큼한 블루베리의 조합은 상당한 케미를 자랑했어요. 서로 부족한 부분을 충족시켜주는 조합이었고 입 안에서 사르륵 녹아내리더라고요.
+그런 다음에는 향부터가 장난아니었던 자연송이 해물완자스프를 내어주셨답니다. 그릇을 손으로 감싸보니 너무 부담스럽지 않고 적당히 뜨끈한 온기가 그대로 전달이 되었답니다.
+먼저 안에 있는 건더기 위주로 집어보았는데 자연송이의 향긋함과 부드러움이 달큰하게 느껴졌어요. 거기에 탱글하고 쫄깃한 해물완자까지 역삼역 맛집다운 시원하고 개운한 맛이라 더할나위 없었어요.
+먹기도전에 기대가 됐던 게살 샥스핀은 류산슬 베이스로 요리를 마쳐 더욱 매력적이고 대중적이었어요. 얇게 찢어 손질을 마친 게살부터 샥스핀까지 부담없이 집어먹기 좋았답니다.
+앞접시에 내용물을 덜어내보자 안에는 새우부터 갖가지 버섯과 야채들도 가득했어요. 부족한 향과 식감을 보충 해 주고 있었는데 꾸덕하고 고소한 맛은 단짝하게 간이 잘 되어있었어요.
+탱글하고 쫄깃한 새우와 더불어 아작 씹히는 콜라겐 덩어리인 샥스핀까지 매력 넘쳤어요. 입 안에서 저마다의 존재감을 강력하게 어필하고 있는데 절묘하게 어우러져 겉돌지가 않았죠.
+그런 다음에는 키조개 발채소스를 마주했는데 발채는 중국에서 자라는 이끼같은 풀이라고 해요. 식감이 꽤 재미있을 것 같았고 살짝 데친 양상추를 아래에 깔아주셨어요.
+파 기름을 베이스로 달달 볶아서 만들어낸 발채 소스라 그런지 향미가 으뜸이었어요. 개운하면서도 아작 씹히는 발채가 지루함과 느끼함을 덜어줘 괜히 역삼역 맛집이 아니구나 싶었죠.
+도톰하면서도 실한 사이즈의 관자를 빠르게 집어 입 안으로 쏙 넣어보았어요. 질기기는 커녕 쫄깃한 맛은 부드럽게 녹아 사라졌고 맛맵시를 더해주는 발채와 소스까지 완벽했어요.
+거기에 넉넉하게 고추튀김을 뿌려주신 마늘등갈비는 냄새가 코를 찌르더라고요. 바삭하게 튀겨낸 등갈비의 이색적인 변신과 마늘, 땅콩을 같이 볶아주셔서 향부터 대박이었죠.
+얼른 등갈비 한 점을 집어보았는데 튀김옷 자체가 두텁거나 부담스럽지가 않았어요. 적당히 바삭하면서도 부드럽고 쫄깃한 육질이 금새 느껴져 연신 고개가 끄덕여지더라고요.
+겉은 바삭 속은 촉촉 그 자체였고 마늘, 땅콩을 함께 볶아주셔서 은은한 향미가 일품이었어요. 거기에 매콤함으로 느끼함을 덜어주는 고추튀김까지 조합 자체도 훌륭했어요.
+메인급의 아스파라거스 소안심은 국내산 소안심을 사용하고 있다고 해요. 양파부터 양송이버섯, 아스파라거스와 같은 가니쉬와 함께 볶아 역삼역 맛집의 요리로 탄생했죠.
+얼른 먹기 좋게 손질을 한 다음에 고기 한 덩이를 집어 입 안에 넣어보았어요. 씹자마자 단짝하면서도 고소한 육즙이 뿜어져 나왔고 몇 번 씹다보면 금새 녹아내리더라고요.
+거기에다가 달큰하고 짭짜름한 소스맛이 진하게 베어있는 가니쉬도 완벽했어요. 탱글하고 부드러웠던 양송이 버섯부터 육향 가득한 소안심까지 남김없이 해치웠어요.
+그런 다음에는 도삭면으로 만든 짜장면을 식사 메뉴로 음미 해 보았어요. 면이 두텁지만 찰지고 쫄깃하면서도 소스와 잘 어우러져 부족하지 않았어요.
+잘 섞어준 다음에 후루룩 흡입 해 보니 신선한 양파와 춘장의 풍미가 그윽하게 느껴졌어요. 딱 맛있는 짜장면이라고 자부 할 만큼 달짝 고소한게 별미였죠.
+식사 후의 마무리는 상큼하고 시원한 요거트 아이스크림으로 입가심을 즐겼어요. 구성은 물론 뛰어난 맛까지 흠잡을데 없던 역삼역 맛집이었답니다.
+   광고 후 계속됩니다.     다음 subject author   
+			취소
+		   역삼역 맛집 
+	재생 
+ 0 
+	좋아요 
+ 0 
+		좋아요
+		공유 하기
+	                       0:00:00    
+		재생
+		음소거
+	00:00
+	00:46
+ 실시간     
+		설정
+		전체 화면
+			해상도
+		 자동 480p   
+			자막
+		 사용 안함  
+			재생 속도
+		 1.0x (기본)   해상도   
+			자동 (480p)
+			480p
+			270p
+			144p
+		    자막 
+	설정
+			사용 안함
+		      옵션  글자 크기    배경색    재생 속도   0.5x 1.0x (기본) 1.5x 2.0x    
+        알 수 없는 오류가 발생했습니다.
+					도움말
+				   음소거 상태입니다. 
+            도움말
+            라이센스
+				고화질 재생이 가능한 영상입니다.
+				설정에서 해상도를 변경해보세요.
+			 더 알아보기 
+	0:00:00
+접기/펴기js가든 센터필드점역삼역 맛집
+2. 바게트케이​주소 : 서울 강남구 테헤란로34길 21-10번호 : 02-567-9501영업시간 : 매일 06:30 - 19:30대표메뉴 : 말제르브바게트 5,500원​바삭한 바게트를 구워 내어주는 바게트케이에요.고소한 베이커리 냄새에 발걸음을 멈추될 정도인데 종류도 다양하고양도 제법 많다보니 아침식사 대용으로도 안성맞춤이었어요.​​3. 일품각 역삼동점​주소 : 서울 강남구 강남대로96길 18번호 : 02-566-8815영업시간 : 매일 13:00 - 01:00대표메뉴 : 마라샹궈 30,000원​잡내가 전혀 느껴지지 않던 쫄깃한 양꼬치 전문점 일품각 역삼동점이에요.사천 원앙훠궈부터 마라샹궈까지 술안주로도 손색 없었는데요.쫀득한 꿔바로우와 함께 친구와 술한잔하며 스트레스도 풀 수 있었어요.​​4. 더막창스​주소 : 서울 서초구 서초대로77길 37 서초동월드 106호번호 : 0507-1459-8593영업시간 : 매일 12:00 - 02:00대표메뉴 : 불양념막창 14,000원​방송플랫폼에서도 소개가 된적 있던 더막창스에요.막창과 대창이 베스트인데 쫄깃함이 남달랐던만큼 입소문이 자자한곳이었어요.매콤한 소스의 불양념은 한입 먹자마자 식욕이 폭발될 정도로 감칠맛 대박이랍니다.​​5. 카멜커피 도산점​주소 : 서울 강남구 도산대로45길 16-8번호 : 010-7774-1484영업시간 : 매일 10:00 - 21:00대표메뉴 : 플랫화이트 5,500원​그윽한 커피에 크림까지 올라간 커피로 유명한 카멜커피 도산점이에요.인기만점인 앙버터와 함께 곁들이면 식후 입가심으로 이만한게 없을정도 인데요.워낙 유명한곳이다보니 웨이팅이 있으니 참고해서 방문하시면 좋을 것 같아요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/somvly_g1/223088229214</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2023. 4. 29. 1:08</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>솜블리</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>강남/역삼맛집 가볍게 먹으려다가 D지게 먹은 (전)강남직장인의 먹리스트 후기(돼지통/일품각/한성양꼬치/세광양대창/배달)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>분명 안먹으랬는데 조금만 가볍게 먹을까했다가많이먹어서 부족한 사진들을 어쩌다가하다한꺼번에 먹리스트 후기로 찌게되었습미댜너무맛잇어서 후기쩌야지😆 했는데갤러리봤더니 사진이 3-4개,,🙄ㅎ 다들 있으시져?전)강남직장인의 강남/역삼맛집 먹리스트 후기라능(대부분 회돈회산/n돈n산)
+1.돼지통-회식의 정석🐷-
+회식하면 고기 고기하면 회식여기는 꽤 여러번 갔던 강남/역삼맛집 돼지통🐷고기가 워낙 맛잇어서 회식말고도 종종갔는데고기 질도 너무 좋고 사이드들도 만족스럽슴댜고기때깔부터 이미 합격아닌가여?이쪽 근무하시는 분들한테는 꽤나 알려져있어서회식장소로 추진했는데 그후로 단골되버려쮸​​​​
+남이 구워주는 고기가 제일 맛잇져고기도 도톰하고 채소류도 잘라서 같이 구워주시는데가지랑 꽈고가 진짜,,,,최고,,,,,,,바쁘실때 어떻게든 혼자서 해보려고하면어느센가 스윽 다가오셔서 집게로 집도해주십니다ㅎㅎ​​​​
+사이드 이것저것 다 좋지만⭐된장술밥 원탑⭐여기서 된장술밥에 눈떠서어디서든 있으면 시켜먹고없으면 된장국에 밥이라도 말아먹게되었움원래 고기먹을때 된찌 국룰 알았찌만여기는 유독 맛잇었어서 아직도 기억남아여이거땜에 다시 강남으로 출근하고싶다 아오​​​​
+또갔을때ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ사실 사진안찍고도 몇번 갔는데이날은 이쪽 근무 마지막날이라 아쉬워서 가게됨여기 간장+날계란 셋팅해주시는데고기를 또 요거에 찍먹하면 또 그렇게 맛잇습다?그리워 돼지통......​​​​
+돼지통고기는 킹정입니닷쫠깃하고 촉촉한데 불향 한가득술이 술술​​​2.일품각 역삼동점-양꼬치+요리류는 못참지👲-
+역삼쪽에 양꼬치집이 은근 없어여강남으로 가거나 좀 더가서 한성양꼬치를 가거나..양고기러버로써 퇴근후 양꼬치는 못참기에일단 가까운 강남/역삼맛집 일품각으로 궈궈매운양꼬치였나 마라양꼬치였나일단 양념된 양꼬치 있다는거에 좋았고그외에도 요리류(양고기볶음?꿔바로우,마라탕) 다양해서또 왕창 먹어줬죠ㅎㅎ 회돈회산 넘좋당 헿한잔술도 있어서 가볍게 한잔할수도있움!​​​​
+그렇게 먹고도 2차맥주는 먹어야하기때문에그냥 근처 맥주집에서 윙봉에 나쵸 김치전까지알차게 클리어-​​​3.월급날은 배달파티-다양하게 FLEX 할 수 있어서 조쿠둥요💸-
+팀사람들끼리도 너무 친해서ㅋㅋㅋㅋㅋ월급날만되면 그날 점심은 무족건 배달로 한가득ㅋㅋㅋㅋ떡볶이에 치킨 조합은 말모,,엽떡+허니콤보 넘좋쿠여밥이랑 핫도그까지 알차게 쟁김 희희다먹고 오후에 식곤증으로 ㄷ질뻔​​​​
+다음달은 도미노피자+신전ㅋㅋㅋㅋ이날 역대급으로 양이 많아서ㅋㅋㅋ1차로 먹고 2차로 먹었을정도,,만족못하고 얼마나 추가해댔던지스파게티에 김밥에 튀김에 난리부르스리이날도 식곤증에 열심히 싸운 우리팀ㅋㅋㅋㅋ​​​4.한성양꼬치-이구역 양꼬치 도장깨기 완🐏-
+역삼의 또다른 양꼬치집강남/역삼맛집 한성양꼬치여기는 좀 유명한 곳이었댜한성양꼬치 1호점 꽉차서 2호점갔는데그래도 사람많아서 퇴근하고 달렸는데도한자리 겨우 차지했을 정도일단 양꼬치 앤 칭따오 꿔바로우 달룟​​​​
+아 양꼬치 맛잇더라구여,,,개인적으로 일품각과 비교해보자면살짝 로컬스러운게 일품각 / 깔끔대중스러운게 한성몰랴 둘다맛잇어여ㅠㅠ​​​​
+아 여기는 어향가지 맛집입니다처음먹어봤거둥요? 미침.....양념 잘된 가지튀김인데 술안주로 딱이에여👍​​​5.갓포돈-점심웨이팅 기다리면서도 먹을만한 맛🍋-
+점심시간에는 어디든 웨이팅이지만강남/역삼맛집 갓포돈은 진짜 절어여..레몬+트러플 소금과 겉바속촉 제대로인돈까스의 조합이 미쳤다고 소문이 ZAZA​​​​
+웨이팅에 이름걸어두고 메뉴도 적어두는데그래서 봐본 메뉴들,, 세트도 있고 단품도 있고저녁에는 안주류들도 팝니닷가게내부는 작고 좁은데 다닥다닥 들어갈수있는,,사람이 진짜 너무많아서 찍을수가없​​​​
+왼쪽이 로스까츠, 오른쪽이 모둠까츠사진만 봐도 겉바속촉 제대로쥬?크기도 도톰해서 먹고나면 든든해여​​​​
+직접만드신 레몬소금에 뙇 찍어먹으면진짜 살짝 레몬향 나면서 도톰한 돈까스에 싹 어우러지는게깔끔해서 질리지가 않아여!!!!녹는댜 녹아🍋​​​6.세광양대창-곱이 내 팔뚝만하고👍 양밥 누가먹었냐-
+강남/역삼맛집 세광양대창여기는 뭐 워낙 유명하져......알아주는 내장류 덕후 솜블리라 벼르고있던곳모둠구이에 곱창전골 뿌시러 왔씀니다여기 양볶음밥이 진짜 맛잇는데이날 일행들이 밥을 다먹어서 한입먹고 못먹었거든여?그게 아직도 한임........ 줜맛탱이었는데​​​​
+   광고 후 계속됩니다.     다음 subject author   
+			취소
+		   ﻿강남/역삼맛집 가볍게 먹으려다가 D지게 먹은 (전)강남직장인의 먹리스트 
+	재생 
+ 9 
+	좋아요 
+ 4 
+		좋아요
+		공유 하기
+	                       0:00:00    
+		재생
+		음소거
+	00:00
+	00:09
+ 실시간     
+		설정
+		전체 화면
+			해상도
+		 자동 480p   
+			자막
+		 사용 안함  
+			재생 속도
+		 1.0x (기본)   해상도   
+			자동 (480p)
+			1080p
+		 HD    
+			720p
+		 HD    
+			480p
+			270p
+			144p
+		    자막 
+	설정
+			사용 안함
+		      옵션  글자 크기    배경색    재생 속도   0.5x 1.0x (기본) 1.5x 2.0x    
+        알 수 없는 오류가 발생했습니다.
+					도움말
+				   음소거 상태입니다. 
+            도움말
+            라이센스
+				고화질 재생이 가능한 영상입니다.
+				설정에서 해상도를 변경해보세요.
+			 더 알아보기 
+	0:00:00
+접기/펴기﻿강남/역삼맛집 가볍게 먹으려다가 D지게 먹은 (전)강남직장인의 먹리스트#강남맛집#역삼맛집#직장인#회식#돼지통#세광양대창#일품각양꼬치#한성양꼬치#떡볶이#갓포돈
+이 숯불로 구우면 뭔들 안맛있겠어여ㅠㅠㅠ안에 곱들도 통통하게 들어있고이날 돈 꽤나 나왔찌만 행복해썼다-☆너무맛잇어여 여기​​​​
+곱창전골과 한입먹고 없어져서사진도 없는 양볶음밥,,,,곱창전골도 진짜 술안주로 딱이고꼭 또가자고 했는데 퇴사해버려서 영영 못가게된😂근처에 세광양대창있으면 꼭 가서 영접해주세여🙏이상 회돈회산/n돈n산 먹리스트 후기였슴댜-​​​​
+300m© NAVER Corp.더보기 /OpenStreetMap지도 데이터x© NAVER Corp. /OpenStreetMap지도 컨트롤러 범례부동산거리읍,면,동시,군,구시,도국가
+돼지통 본점
+서울특별시 강남구 테헤란로19길 29 1층 돼지통
+예약
+일품각 역삼동점
+서울특별시 강남구 강남대로96길 18
+예약
+한성양꼬치 강남2호점
+서울특별시 강남구 역삼로3길 14
+세광양대창 강남역중앙점
+서울특별시 강남구 강남대로94길 14 1층
+예약
+갓포돈
+서울특별시 강남구 테헤란로25길 20 역삼현대벤쳐텔 B102호
+​</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/hdsign88/223300260863</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2023. 12. 22. 11:09</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>불뚝이</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>역삼 고기집 회식 맛집 칠프로칠백식당 역삼직영점 메뉴 주차 후기</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>오늘은 역삼 고기집으로 갑니다!강남으로 갈까 하다가강남에는 사람이 너무너무 많아서상대적으로 사람이 적을 것 같은역삼 고기집으로 찾아왔어요 ㅎㅎ​그런데 역삼역 회식이 많은지...연말에는 역삼역도 사람이 많네요 ㅋㅋ​
+50m© NAVER Corp.더보기 /OpenStreetMap지도 데이터x© NAVER Corp. /OpenStreetMap지도 컨트롤러 범례부동산거리읍,면,동시,군,구시,도국가
+칠프로칠백식당 역삼직영점
+서울특별시 강남구 테헤란로38길 27 1층
+예약
+&lt;역삼 고기집 칠프로칠백식당 역삼점&gt;​🌈주소- 서울 강남구 테헤란로38길 27 1층- 서울 강남구 역삼동 721-3- 2호선 역삼역 1번출구 622m​🌈전화번호0507-1425-702002-552-7005​🌈영업시간월-토 11:30 ~ 23:00매주 일요일 정기휴무​🌈기타 편의제로페이, 콜키지프리단체석, 주차, 포장, 예약남/녀 화장실 구분​🌈예약 방법네이버예약, 전화예약​🌈주차 방법주차 가능​
+칠프로칠백식당에도크리스마스 산타가 찾아 왔네요!​
+칠프로칠백식당은 워낙 지점이 많아서한우 먹을 때 종종 가는 편인데요맛이나 인테리어가어느 지점에 가도 일관성을유지하는 것 같아요 ㅎㅎ​
+칠프로칠백식당 역삼직영점은홀과 룸이 나눠져 있어요처음에 홀밖에 없는 줄 알고생각보다 작은가 했는데 아니더라고요​
+이렇게 빨간문이 있는 곳이전부 룸이예요!​평일 저녁 7시30분정도라서룸에서는 모두 역삼역 회식이 진행되고 있는지룸이 꽉 차 있어서 안은 못 봤네요 ㅜㅜ​
+칠프로칠백식당의 비밀 하나!자리 옆에 빨간 문을 열면옷장이예요 ㅋㅋㅋ​처음에 몰라서 옷을 그냥 벗어 뒀는데사장님이 문이라고 열어 보라고 하시는거예요!그랬더니 나오는 숨은 옷장 ㅎㅎ비밀의 문 같았어요 ㅋㅋ
+역삼 고기집 칠프로칠백식당 메뉴입니다~!​
+한우모둠, 한우등심, 한우안심, 한우육사시미곤드레밥, 된장찌개, 짱아찌국수메뉴가 간단하면서도 있을 건 다 있어요 ㅎㅎ​
+와인리스트는 여기있습니다~!​
+이렇게 와인도 진열되어 있어서어떤 건지 볼 수도 있어요&gt;&lt;​
+점심에는 점심특선도 있나봐요​
+한우선물세트도 파나보네요 ㅎㅎ​
+메뉴를 살펴보는 사이기본세팅 완료!​
+제일 먼저 나온 메뉴는한우 육사시미예요 ㅎㅎ​
+양념에도 콕 찍어 먹고깻잎이랑도 싸 먹어요 ㅎㅎ​깻잎이 그냥 깻잎이 아니라짱아찌 양념이 살짝 되어 있는 깻잎이라육사시미 싸 먹어도 맛있다고추천해주셨어요&gt;&lt;​
+한우 육사시미를 어느 정도 먹고 나면한우 모둠을 주세요~​
+   광고 후 계속됩니다.     다음 subject author   
+			취소
+		   역삼 고기집 회식 맛집 칠프로칠백식당 역삼직영점 메뉴 주차 후기 
+	재생 
+ 1 
+	좋아요 
+ 0 
+		좋아요
+		공유 하기
+	                       0:00:00    
+		재생
+		음소거
+	00:00
+	00:06
+ 실시간     
+		설정
+		전체 화면
+			해상도
+		 자동 480p   
+			자막
+		 사용 안함  
+			재생 속도
+		 1.0x (기본)   해상도   
+			자동 (480p)
+			1080p
+		 HD    
+			720p
+		 HD    
+			480p
+			270p
+			144p
+		    자막 
+	설정
+			사용 안함
+		      옵션  글자 크기    배경색    재생 속도   0.5x 1.0x (기본) 1.5x 2.0x    
+        알 수 없는 오류가 발생했습니다.
+					도움말
+				   음소거 상태입니다. 
+            도움말
+            라이센스
+				고화질 재생이 가능한 영상입니다.
+				설정에서 해상도를 변경해보세요.
+			 더 알아보기 
+	0:00:00
+역삼 고기집 회식 맛집 칠프로칠백식당 역삼직영점 메뉴 주차 후기
+고기 구울 타이밍에 맞게한우 모둠을 내주시는 센스!​
+마블링도 좋고 빛깔도 좋고맛있어보이죠 ㅎㅎ​
+제일 먼저 살치살부터구워봅니다 ㅎㅎ​처음에는 맛있게 먹으라고사장님께서 구워주셨어요~살치살은 구워주시고그 다음부터는 먹는 속도에 맞춰서구워먹으면 된대요&gt;&lt;​
+고기 구워지는 걸 기다리는 시간이제일 견디기 힘들어요 ㅜㅜ​
+처음은 소금에 찍어 먹어보라고 하셨으니소금에 톡 찍어서 고기맛을 느껴봤어요 ㅎㅎ부드럽고 고소함이 쭉 올라와요!​
+육사시미 32,000원한우모듬 34,000원살치살, 안창살, 늑간살, 덧살된장찌개 5,000원곤드레밥 3,000원짱아찌국수 8,000원콜라 2,000원​
+   광고 후 계속됩니다.     다음 subject author   
+			취소
+		   역삼 고기집 회식 맛집 칠프로칠백식당 역삼직영점 메뉴 주차 후기 
+	재생 
+ 1 
+	좋아요 
+ 0 
+		좋아요
+		공유 하기
+	                       0:00:00    
+		재생
+		음소거
+	00:00
+	00:18
+ 실시간     
+		설정
+		전체 화면
+			해상도
+		 자동 480p   
+			자막
+		 사용 안함  
+			재생 속도
+		 1.0x (기본)   해상도   
+			자동 (480p)
+			1080p
+		 HD    
+			720p
+		 HD    
+			480p
+			270p
+			144p
+		    자막 
+	설정
+			사용 안함
+		      옵션  글자 크기    배경색    재생 속도   0.5x 1.0x (기본) 1.5x 2.0x    
+        알 수 없는 오류가 발생했습니다.
+					도움말
+				   음소거 상태입니다. 
+            도움말
+            라이센스
+				고화질 재생이 가능한 영상입니다.
+				설정에서 해상도를 변경해보세요.
+			 더 알아보기 
+	0:00:00
+역삼 고기집 회식 맛집 칠프로칠백식당 역삼직영점 메뉴 주차 후기
+식사는 원할 때 말하라고 하셔서한우 고기 구우면서 먹으려고바로 달라고 요청드렸어요 ㅎㅎ​
+한그릇 가득 들어 있는 짱아찌국수!칠프로칠백식당 오면짱아찌국수는 필수예요 ㅎㅎ여기서만 먹을 수 있거든요 ㅋㅋ​
+참기름이 뿌려져 있어서잘 섞어서 후루룩 먹으면 돼요​
+그냥 먹어도 맛있지만고기랑 같이 먹으면 더 맛있죠 ㅎㅎ​짱아찌국수는 새콤하면서도탱탱한 맛이 있어서 매력적이예요​
+된장찌개와 곤드레밥도 주문!어쩌다보니 사이드메뉴를전부 먹었네요 ㅋㅋ​
+곤드레밥은 같이 나온 양념장을 넣고비벼 먹으면 돼요 ㅎㅎ​
+두부가 듬뿍 들어 있는된장찌개도 조금 곁들이고요 ㅎㅎ​
+곤드레밥은 이렇게 양념이랑만비벼먹어도 맛있어요 ㅋㅋ​
+그렇지만 곤드레밥도 역시고기랑 먹으면 더 맛있겠죠?!​
+짱아찌국수와 곤드레밥도 맛 봤으니안창살, 늑간살, 덧살도차례로 구워먹어요 ㅎㅎ​
+얘기하다가 고기 굽는 걸 놓쳤더니사장님께서 도와주셨어요 ㅋㅋㅋ덕분에 안 태우고 먹었네요 ㅎㅎ​
+소금, 오이고추, 김치, 파채 등다양한 반찬이랑 고기랑 같이 먹어도최고는 소금에 찍어 먹는 것 같아요​소금이 일반 소금이 아니라녹차소금이라서 그런걸까요 ㅎㅎ​
+어느새 먹다 보니벌써 마지막 부위예요 ㅜㅜ​
+기름기가 있는 부위라서너무 기름질까 봐 걱정했는데한우 육즙과 기름기가 어우러져서딱 조화로울 정도였어요 ㅎㅎ​
+마지막은 유자 꿀물 서비스~술을 드시면 헛개차를안 드시면 유자 꿀물을 주셔서입가심까지 깔끔하게 끝냈어요!ㅎㅎ​
+이상, 역삼 고기집 회식 맛집칠프로칠백식당 역삼점 메뉴 주차 후기를 마칩니다~​
+​
+​</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/1616sm/223285390935</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2023. 12. 7. 10:11</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>박로우</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>역삼 맛집 진가와 프라이빗 초밥 강남 룸식당</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>​​​​​​
+정갈한 한상차림을 맛볼 수 있는일식 전문 역삼 맛집.
+한 줄 요약 - 진가와
+​​​연말이 되니 아늑한 분위기 속에서맛있는 음식을 먹으러 다니는 게 삶의 즐거움으로 자리 잡은 듯 하다.
+최근에는 여러가지 다양한 음식을 높은 퀄리티로 맛볼 수 있는 식당에 마음이 끌린다.​오늘은 1인분으로도 정갈하고 푸짐하게직접 공수한 면과 함께 초밥, 회 등 다양한 일식을 즐길 수 있는 역삼 맛집 ,진가와에 다녀 온 날에 대해 기록하려 한다.​​
+1. 외부
+​​[역삼역 이지카야 '진가와' 주소]서울 강남구 논현로94길 25-3 지하1층 .​건물 앞에 도착하면 바로 지하로 내려갈 수 있는외부 계단을 통해 매장으로 들어갈 수 있다.​​
+​​알고 보니 여기 역삼 맛집 은, 약 360년의 전통을 가지고 있는‘나가사키현 유일의 식품명장’인 토시오 장인이면을 항공으로 직접 공수하여 사용한다고 한다.
+과연 어떤 음식을 맛볼 수 있을지...!두근거리를 마음 안고 문을 열고 안으로 들어갔다.​​
+2. 내부
+​​들어가자 마자 아늑한 분위기의 매장이 펼쳐졌다.​차분한 블루 컬러의 벽과 우드톤 가구를 통해평온하고 잔잔한 감성의 인테리어로 이루어져 있다.혼밥할 수 있는 바 테이블은 물론 2인석, 4인석 등 여러 형태의 좌석도 간격 넓직하게 배치되어 있는 걸 확인할 수 있다.
+​
+​​면을 만들어 주시는 장인의 손도장이 자랑스럽게 매장 중앙에 전시되어 있었다.​우린 만지면 안되는 줄 알고 멀리서 지켜만 봤는데,기운을 직접 느낄 수 있도록 손을 대봐도 된다고 손도장 아래 적혀 있으니 안심하고 경험해 보시길 :)​​
+​​넓은 좌석공간 외에도 문을 닫고 프라이빗하게 식사할 수 있는 룸도 있다!그래서 송년회나 연말 모임 등 일행들과 프라이빗한 공간에서 즐길 수 있을 듯 하다.​우리가 갔을 땐 살짝 분위기를 보니, 업무 관련 미팅 등이 필요한 직장인과가족 단위의 손님들이 오붓한 시간을 가지고 계셨다.​​
+​​우리는 2인석에 안내 받아 자리에 앉았다.​테이블 위에는 시치미가 놓여져 있었고,바로 제공해 주신 물도 맹물이 아닌 찻물이라너무 맛있어서 호로록 호로록 계속 마셨다.​나에게 물이 맛있는 곳은 찐맛집이다 라는 명언을 날린 게 바로 이 때 함께한 친구인데 ㅋㅋ몇 모금 마시더니 여기 물 진짜 맛있다며어떤 차를 사용했을지 탐구하기 시작했다.나올 때 여쭤볼 걸...
+​
+3. 메뉴판
+Previous image
+Next image
+​​가져다 주신 메뉴판을 보며오늘의 저녁식사를 결정했다.​알찬 세트 구성과 함께 전문가가 직접 만든 면으로 만든 우동/소바 등 면요리,그리고 신선한 스시 및 사시미까지 다채롭게 즐길 수 있는 메뉴가 가득하다.곁들여 마실 하이볼/사케/생맥주와 같은 페어링 좋은 술들까지 다양하게 만나볼 수 있다.​우리는 특사시미&amp;스시정식과 사시미&amp;스시정식을각 1개씩 주문하기로 했다.함께 제공되는 면 요리는 냉국수와 우동 중에서선택할 수 있어 하나씩 다른 걸로 골라보았다 :)
+특사시미&amp;스시정식사시미&amp;스시정식
+​
+4. 음식
+   광고 후 계속됩니다.     다음 subject author   
+			취소
+		   역삼역맛집 진가와 정식 
+	재생 
+ 3 
+	좋아요 
+ 0 
+		좋아요
+		공유 하기
+	                       0:00:00    
+		재생
+		음소거
+	00:00
+	00:49
+ 실시간     
+		설정
+		전체 화면
+			해상도
+		 자동 480p   
+			자막
+		 사용 안함  
+			재생 속도
+		 1.0x (기본)   해상도   
+			자동 (480p)
+			720p
+		 HD    
+			480p
+			270p
+			144p
+		    자막 
+	설정
+			사용 안함
+		      옵션  글자 크기    배경색    재생 속도   0.5x 1.0x (기본) 1.5x 2.0x    
+        알 수 없는 오류가 발생했습니다.
+					도움말
+				   음소거 상태입니다. 
+            도움말
+            라이센스
+				고화질 재생이 가능한 영상입니다.
+				설정에서 해상도를 변경해보세요.
+			 더 알아보기 
+	0:00:00
+접기/펴기역삼역맛집 진가와 정식#역삼맛집#역삼역맛집#역삼회식#역삼단체회식#역삼역저녁
+​​잠시 미뤄뒀던 수다를 떠는 사이,주문한 음식들이 한 번에 우루루 쏟아져 나왔다!​캬... 테이블에 빈 자리가 없을 정도로 상을 꽉 채우는 두 타입의 정식 세트.
+​
+사시미&amp;스시정식
+​​뭐부터 먹어야 할지 몰라 잠시 멈칫했다가,우선 하나씩 살펴 보며 맛보기로 했다.​사시미&amp;스시정식오늘의 에피타이저냉소면미니 튀김회 6P초밥 3P후식 아이스크림(인절미)​​
+​
+사시미는 어떻게 또 광어, 연어, 참치로 딱 내가 좋아하는 회 3가지로 구성되어 있는지 받아 보자 마자 웃음이 절로 났다.모두 탱글탱글하고 고소하니 신선함이 느껴뎠다.​튀김 3종도 겉바속촉 제대로 익혀져서함께 나온 튀김용 간장에 찍어 먹으면끝 없이 들어갈 것 같이 맛있었다. ㅎㅎ​​
+​​이 구성에는 튀김우동을 선택했는데,맑고 고소한 맛의 육수와 탱탱쫄깃한 얇은 면발이맛이 조화롭고 속도 따듯해져서 좋았다.​​
+​​또한 역삼 맛집 의 초밥과 소바마끼도입에 착착 붙으면서 감칠맛이 느껴졌다!​개인적으로 소바마끼를 정말 좋아하는데면이 고소하면서 삼삼한 간이 딱 내 스타일이었다 :)​​
+특사시미&amp;스시정식
+​​특사시미&amp;스시정식오늘의 에피타이저냉소면회 8P미니 튀김초밥 6P후식 아이스크림(인절미)​​
+​​확실히 특정식 다운 보다 풍성한 구성에이것저것 구경하느라 눈이 쉴 새가 없었다.​먼저 가장 시선을 사로잡는 사시미&amp;스시 한 접시.전복이 주축을 이루면서 참치뱃살, 연어, 소바마끼,그리고 먹음직스러운 초밥들이 가득 채웠다.
+개인적으로 전복의 비린내를 잘 캐치하는 편인데이곳 역삼 맛집 전복은 1도 비리지 않고 맛있게 먹었다.​​
+​​튀김 3종은 동일하게 제공된다.​​
+​​그리고 식사로 나온 냉소바.​추운 날씨에 먹는 냉소바라 긴가민가했는데한 입 딱 먹자 마자 깜짝 놀랐다!시원하고 새콤한 육수와 쫄깃쫄깃한 소바면발이질리지 않고 숙숙 먹을 수 있는 풍미였다.​​
+디저트 아이스크림
+​​마지막으로 나온 디저트는콩가루가 토핑된 바닐라 아이스크림이었다.​어떤 조합일지 상상이 되지 않았는데고소한 콩고물과 달콤하고 부드러운 아이스크림이밸런스 좋게 어우러져 맛있게 먹을 수 있었다 :)​​
+​​마무리까지 참 좋았던 진가와.​먹음직스러운 비주얼의 정식을 맛보고 싶다면오늘의 역삼역 이지카야에 와보시는 건 어떨까?​​
+50m© NAVER Corp.더보기 /OpenStreetMap지도 데이터x© NAVER Corp. /OpenStreetMap지도 컨트롤러 범례부동산거리읍,면,동시,군,구시,도국가
+진가와 한국본점
+서울특별시 강남구 논현로94길 25-3
+​​- 역삼 맛집 '진가와 한국본점' 영업시간 -월~금 11:30 - 22:30(14:30 - 17:30 브레이크타임)(14:00 라스트오더)​토일 12:00 - 21:30(15:00 - 17:00 브레이크타임)(14:30 라스트오더)​
+다음엔 또 뭘 먹을까?#역삼역이지카야 #강남모임장소 #역삼맛집 #역삼동맛집 #역삼역점심 #강남회식
+​</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/dlrwnsaka/223294139086</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2023. 12. 16. 0:31</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>그린백</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>역삼동맛집 박속낙지 &amp; 회. 역삼역, 강남 횟집</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>바람이 불고 겨울비가 내리니 뜨끈뜨끈한 국물이 생각이 난다. 맑고 담백한 국물을 맛볼려고 신랑이랑 역삼역에서 만났다. 서울에서는 유일하게 박속낙지를 먹을 수 있는 곳이 있다고해서 역삼동맛집으로 갔다. 역삼역 4번 출구로 나와서 뒤쪽으로 돌아 첫번째 골목으로 들어가면 바로 보이는 초 역세권에 위치해있다. 
+주차장이 옆에 있고 주차도 가능하다. 언덕아래 1층에   자리해 있으며 점심특선을 알리는 입간판도 세워져있다. 입구에는 단체모임을 하시고 나가는 분들이 있었고 조금 기다렸다가 내부로 들어갔다.
+박속낙지 &amp;회(해물, 생선요리)(02 501 3833)2호선 역삼역 4번 출구에서 73m.매일 10:00~22:00라스트오더 21:55.주차, 예약, 무선인터넷, 남/녀 화장실 구분, 단체 이용 가능.​​​​​​​​​​​​
+가게내부 
+이곳은 역삼역횟집을 같이 운영하고 있으며 가게내부로 들어서니 바다위로 올라온 생선의 사진이 크게 보였다. 그리고 박 바가지위에 배우 싸인이 보였다. 박속을 긁어내서 나물로 볶아먹던지, 말려서 박고지로 먹어도 된다. 박속낙지 처럼 탕에 넣어서 먹어도 되며 박 껕질은 잘 말리면 박 바가지가 된다. 식 후 마시는 자판기 커피도 놓여있었다.
+내부는 엄청나게 넓었다. 우측으로는 강남 횟집 답게 신선한 해산물이 가득한 대형 수조가 있었고 끝에는 주방이 있었다. 안쪽에는 룸 공간도 있고 홀이 넓어서 단체모임, 역삼 회식장소로 딱 좋을듯 하다.
+대형낙지가 가득 들어가 있었고 벽에는 커다란 바닷가 사진이 걸려 있어서 마치 바닷가에 와있는 기분이 들었다. 
+룸 공간에도 박 바가지가 걸려 있는 풍경이다. 우리집에도 어릴적에 박 바가지가 많았었는데 보고 있으니 추억이 돋는다.
+룸공간도 테이블을 길게 두어서 넓었다. 좀더 프라이빗한 식사를 원한다면 룸으로 예약을 하면 되겠다.
+주인분이 충청도에서 직접 "박" 을 재배한다고 하니 더욱 믿고 먹을 수 있다. 박은 골다공증, 빈열, 심혈관질환에 좋으며 칼륨 성분을 함유해서 노폐물 배출과 붓기에도 좋다고 한다. 박속낙지와 대산낙지와의 만남을 먹어 보도록한다.​​​​​​​​​​​​
+메뉴판 
+역삼동맛집인 박속낙지 &amp; 회 에는 박속낙지 외에도 활어회들이 가득하다. 국물이 있는 박속낙지를 먹어도 되며 싱싱한 회를 먹어도 된다. 점심메뉴도 있으니 주변 직장인분들에게 좋으며 주류와 음료도 있다.
+벽에는 낙지와 박의 효능에 대해 적혀있다. 낙지는 스테미너 최고의 음식이며 박은 흥부전이 떠오르는 그 박이 맞다. 박 속에서 각종 보석이 나오지는 않지만 보석만큼 좋은 재료는 맞다. 원산지 표시도 잘 표기되어 있다.​​​​​​​​​​​​
+박속낙지(78000)진로소주(5000)감자옹심이(9000)
+테이블위에는 수저통과 티슈, 앞접시, 물컵과 소주잔이 놓여 있었다. 자리에 앉으니 물과 물티슈를 가져다 주었다.
+곧이어 기본반찬이 차려졌다. 두툼한 김치전, 아삭한 깍뚜기, 야들한 콩나물무침, 부추무침, 시래기무침이 나왔다.
+김치전은 겉은 바삭하고 속은 촉촉했으며 김치국물이 들어갔는지 엄청 고소하고 간도 잘되어 있었다. 기다리는 동안 먹기에 좋은 김치전 이었다. 깍뚜기도 양념이 잘 되어 있고 깔끔한 맛이다.
+삶은 시래기를 무친것 같은데 고소하면서 입맛 돋구는 토속 음식이다. 부추무침도 새콤달콤하며 맛깔났다.
+얇은 콩나물 무침은 식감이  아삭하고 좋았다. 개인마다 와사비 간장소스를 내어 주었다.​​​
+진로소주 
+비도 내리는 날 소주안주에 박속낙지 만한 것이 없다며 굉장히 행복해 했던 신랑은 오늘도 소주까지 사랑하신다.​​​
+박속낙지 (소)
+우리가 기다리고 궁금했던 역삼동맛집의 메인인 박속낙지가 나왔다. 뭐랄까? 닭한마리 메뉴처럼 파와 양파, 박속만 있는 맑은 국물이 나왔다.  
+국물이 끓으면 바로 문어 만한 낙지를 투입하고 한참을 끓여야 한다고 했다. 수조에 있던 커다란 낙지가 풍덩 담겼다.
+한참 끓이고 직원분이 와서 가위로 낙지를 먹기좋은 크기로 잘라 주었다. 크기가 커서 자르는데도 시간이 소요된다. 기다리고 있으니 더 시간이 더디게 가는것 같았다. 낙지 머리만 빼고 먹으면 된다.
+자른 후 먹으면 된다고 손수 앞접시에 퍼주었다. 국물 색상이 은은한 황금빛을 띄면서 맑았다. 
+직원분이 여기의 낙지는 낙지만 건져내서 먹기보다 숟가락으로 낙지와 국물을 같이 먹어야 한다고 했다. 숟가락으로 국물과 낙지를 같이 퍼서 먹어 보았다. 국물이 엄청 담백하지만 달다. 맛있는 음식을 먹으면 내입에 달다라는 말을 하는데 국물이 진짜 놀라울정도로 깊은데 깔끔했다. 박속과 낙지의 만남이 최고의 국물맛을 이끌어 냈다.
+낙지를 와사비장에 찍어서도 먹었는데 낙지가 부들거리고 야들하다. 낙지는 오래 끓이면 질겨지는데 박속이 들어가서 질겨지지 않는다고 했다.
+국물속에는 박속도 꽤 많이 들어 있었다. 끓여서 무를 오랫동안 끓인 식감이 났고 은은하게 박나물의 향이 났다. 박을 나물로만 볶아 먹었는데 탕에 넣으니 새롭고 맛이 좋았다.
+국물이 생명이니 아낌없이 먹어 주었으며 낙지도 양이 많아서 배터지게 먹었다. 
+국물은 끓이면 끓일수록 더 깊은 맛이 느껴지며 더 진했다. 감자도 큼지막하게 많이 들어가 있었고 감자도 포슬거리며 달다. 감자는 으깨어서 국물과 같이 먹어도 맛있다.
+마지막으로 낙지 머리를 건져내서 가위로 잘라준 후 바로 먹으면 된다고 했다. 다시 탕에 넣지 않고 바로 먹으면된다. 나는 먹지 못했는데 신랑은 내장이 들어가 있어서 엄청 고소하다고 했다.​​​
+감자옹심이 (1인분)
+내돈내산 
+박속낙지만 먹고 나오자니 아쉬워서 수제비와 옹심이 둘중 고민을 하다가 감자 옹심이를 주문했다.
+감자 옹심이는 탕에 넣은 후 떠오르면 먹으면 된다고 했다. 금방 떠오르는데 떠오르면서 점점 크기가 커진다. 내가 알던 감자옹심이가 아닌 찹쌀떡 같은 식감이었다. 건져내서 꿀을 입혀서 먹으면 꿀떡이 될듯한 식감이다. 아마 찹쌀이 들어간 감자 옹심이 인듯하다. 그래도 맛있어서 다 먹었다. 
+   광고 후 계속됩니다.     다음 subject author   
+			취소
+		   박속낙지 속 낙지  
+	재생 
+ 0 
+	좋아요 
+ 0 
+		좋아요
+		공유 하기
+	                       0:00:00    
+		재생
+		음소거
+	00:00
+	00:16
+ 실시간     
+		설정
+		전체 화면
+			해상도
+		 자동 480p   
+			자막
+		 사용 안함  
+			재생 속도
+		 1.0x (기본)   해상도   
+			자동 (480p)
+			1080p
+		 HD    
+			720p
+		 HD    
+			480p
+			270p
+			144p
+		    자막 
+	설정
+			사용 안함
+		      옵션  글자 크기    배경색    재생 속도   0.5x 1.0x (기본) 1.5x 2.0x    
+        알 수 없는 오류가 발생했습니다.
+					도움말
+				   음소거 상태입니다. 
+            도움말
+            라이센스
+				고화질 재생이 가능한 영상입니다.
+				설정에서 해상도를 변경해보세요.
+			 더 알아보기 
+	0:00:00
+박속낙지 속 낙지 
+​​​​​​​​​​​
+에세이 
+서울에서 박속낙지를 먹을 수 있는 유일한 역삼동맛집에서 담백하고 시원한 국물을 먹었다. 박속이 들어가 있어서 국물이 진짜 남달랐으며 내 속의 찌꺼기들이 사라지는 것 같았다. 박 농장을 직접 운영하신다고 하니 언제든지 박 을 맛볼 수 있는 곳이다. 박속낙지는 술을 많이 마시는 직장인분들에게 최적의 회식장소가 아닐까 싶다. 술마시기에 좋은 안주며 몸보신 하기에도 좋다. 이곳에는 이것 말고도 역삼역횟집, 강남횟집의 간판을 달고 있으며 데코레이션이 끝내주는 살아있는  회도 맛볼 수 있다. ​​​​​​​​​​​​​​​​#역삼동맛집#강남횟집#역삼역횟집#역삼역맛집#역삼역회식장소#역삼역연말모임#역삼역단체모임#역삼역몸보신#역삼역활어회​​​
+50m© NAVER Corp.더보기 /OpenStreetMap지도 데이터x© NAVER Corp. /OpenStreetMap지도 컨트롤러 범례부동산거리읍,면,동시,군,구시,도국가
+박속낙지 &amp; 회
+서울특별시 강남구 테헤란로25길 7 1층
+​</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/dorami7/223302949319</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>12시간 전</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Day Tripper</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>강남역 맛집 역삼역 점심 - 따끈한 우육도삭면과 맛있는 쇼마이</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>날이 추우니 생각나는 따끈한 국물칼로 베어 만든 두툼한 면이 맛있는신복면관의 우육도삭면을 먹으러 갔다. ​​
+50m© NAVER Corp.더보기 /OpenStreetMap지도 데이터x© NAVER Corp. /OpenStreetMap지도 컨트롤러 범례부동산거리읍,면,동시,군,구시,도국가
+신복면관
+서울특별시 강남구 테헤란로4길 6 B126호
+서울 강남구 테헤란로4길 6 B126호강남역센트럴푸르지오시티 오피스텔 B1강남역 1번출구에서 1분 이내 거리​영업 시간: 매일 11:00~22:00브레이크타임 없음​​
+상큼냉채가 너무 맛있는 강남역 맛집 역삼역 점심 신복면관다양한 중국 가정식도 매력적이지만상큼냉채가 정말 내 입에 딱인 중국식당이다. 
+대표메뉴는 도삭면국물이 있는 우육도삭면과 국물이 없는 (하지만 온면) 유발도삭면이다.볶음밥과 덮밥 메뉴도 맛있을 것 같고 다양한 중국 가정식 요리가 있어서공기밥과 같이 먹기 좋아보인다. 
+깔끔한 신복면관 가게 내부 인테리어여긴 브레이크타임이 없어서 이날 한 3시쯤 갔는데 그래도 손님이 좀 있었음점심 시간에는 정말 자리가 안 나는 강남역 맛집. ​​
+4인이 앉을 수 있는 룸벽지도 예쁘고 조명도 예쁘고소규모 회식하기 딱 좋아보인다. ​​
+주문은 테이블에 장착된 패드로 주문계산은 나가기 전 카운터에서 한다. 추운 날이어서 우육도삭면이 눈에 들어왔다.​​
+주문한 메뉴:상큼냉채 1개 8,000원쇼마이 1개 8,000원우육도삭면 1개 9,800원사실 한국에서는 딤섬 전문점 아니면냉동 쇼마이가 나오는 경우가 많아잘 안시키는데 궁금해서 시켜보았다. ​​
+기본으로 나오는 땅콩 볶음과 자차이자차이가 달지 않고 상큼하다. ​​
+제일 먼저 등장한 우육면국물이 육개장같은 느낌인데 맛은 전혀 다르다 딱 대만 우육면 스타일​​
+수제비 스타일로 울퉁불퉁굵기가 들쭉날쭉한 도삭면...못 참죠?고기 고명은 푹 익어서 그냥 입에서 사락 녹음​​
+굉장히 부드럽고 연했던 소고기국물과 같이 떠먹으면 귯~​​
+면은 보기엔 쫄깃해보이는데생각보다 똑똑 끊어진다. 칼국수와 조금 비슷하긴 이름도 비슷하다. ㅎㅎ​​
+칼국수는 면 두께가 일정하다면도삭면을 이렇게 울퉁불퉁해서 다양한 식감이 느껴지는 게 차이인 것 같다.​​
+사랑하는 신복면관의 상큼냉채그냥 상큼하기만 한 게 아니라 고소하기도 하고 감칠맛 끝판왕.참기름+중국식초 느낌?거기 마늘? 집에서 한 번 만들어봐야겠다. ​​
+오이, 목이버섯과 건두부채,당근, 파 등등 다양한 식재료가 들어 있다. ​​
+사진 보니깐 또 먹고 싶어지는 상큼냉채양이 굉장히 많게 나오는데 다 먹음...​​
+마지막으로 등장한 쇼마이냉동쇼마이 나오면 앞으로 이 집에선딤섬? 만두류는 안 먹어야겠다 생각했는데의외로 제대로 정석 쇼마이가 나왔다. ​​
+새우와 돼지고기가 꽉 찬 쇼마이다섯 알 모두 모양이 살짝씩 다른 게오히려 더 수제 느낌이라 좋다. ​​
+탱글탱글한 식감+고소함과 담백함 사이의 맛기대 안했는데 웬만한 딤섬집 쇼마이보다 맛있다.간이 적절히 되어 있어서 뭘 찍어먹지 않고 그냥 먹어도 맛있음.​​
+신복면관에서는 샤오롱바오 간장처럼생강채를 넣어 주는데원래 쇼마이에서도 생강향이 살짝 나는데다생강채를 같이 먹으니 너무 잘 어울렸다. ​​​
+상큼냉채, 쇼마이 곁들여서 우육도삭면 먹기여긴 메인메뉴도 맛있지만사이드로 먹을 메뉴들이 다 너무 훌륭해서이것저것 먹고 싶어서 주문하기 곤란한 정도다. ㅎㅎㅎ​나오면서 벌써 다음에 먹을 메뉴 미리 정함. ㅎㅎ​​
+딤섬 메뉴에 있는 만두를 전부 먹어보고 싶을 정도로 훌륭했던 쇼마이와 따끈한 우육도삭면,상큼냉채가 맛있었던 강남역 밥집 신복면관​​
+   광고 후 계속됩니다.     다음 subject author   
+			취소
+		   강남역맛집 신복면관 
+	재생 
+ 2 
+	좋아요 
+ 1 
+		좋아요
+		공유 하기
+	                       0:00:00    
+		재생
+		음소거
+	00:00
+	00:43
+ 실시간     
+		설정
+		전체 화면
+			해상도
+		 자동 480p   
+			자막
+		 사용 안함  
+			재생 속도
+		 1.0x (기본)   해상도   
+			자동 (480p)
+			1080p
+		 HD    
+			720p
+		 HD    
+			480p
+			270p
+			144p
+		    자막 
+	설정
+			사용 안함
+		      옵션  글자 크기    배경색    재생 속도   0.5x 1.0x (기본) 1.5x 2.0x    
+        알 수 없는 오류가 발생했습니다.
+					도움말
+				   음소거 상태입니다. 
+            도움말
+            라이센스
+				고화질 재생이 가능한 영상입니다.
+				설정에서 해상도를 변경해보세요.
+			 더 알아보기 
+	0:00:00
+접기/펴기강남역 밥집 신복면관강남역맛집 신복면관
+재방문 의사 유!
+​
+​</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/arasi56/223297843724</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2023. 12. 19. 23:14</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>진땅</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>강남역맛집 고기집 함양숯불회관 본점, 지리산 흑돼지가 맛있는 역삼역맛집</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>강남역맛집 고기집함양숯불회관 본점지리산 흑돼지가 맛있는 역삼역맛집
+서울 강남구 역삼로 140 지상1층0507-1420-9234​정기휴무 (매주 일요일)[점심특선] 평일 11:30~14:00토 12:00 - 01:00 / 월~목 11:30 - 01:00브레이크타임 14:00 - 16:00 ​*주차정보건물 지하주차장에 무료 주차가능하나 17:00 이후 부터 무료임17시 이전에는 인근 유료 주차장 이용
+함양숯불회관 본점
+서울특별시 강남구 역삼로 140 지상1층
+ 흑돼지를 먹었던 기억이 딱!!두번 이었던거 같은데최근 역삼초교 근처 지리산 흑돼지가 맛있다는 고기집소문이 잠실까지 들려오니 오늘 저녁은강남역맛집 함양숯불회관 본점으로 방문하게 되었다. ​강남역 신분당선 4번 출구에서 도보 11분 역삼역 3번 출구에서 도보 11분 거리에 위치하고 있고집에서는 버스로 한번에 달려가니강남에서 일하는 윰언니를 섭외하여 저녁을 함께했다. ​
+오픈한지 얼마 되지 않았다고 들었는데계속해서 들어오는 손님들로 북적이는 강남역맛집 고기집 함양숯불회관​조금만 늦었다면 웨이팅 할 뻔했네!!그래서인지 다들 예약하고 방문하는 분위기였다.​프라이빗한 룸 공간도 보유하고 있는데모두 손님들이 계서서 구경도 못했다.ㅋ룸 정보는  4-6인룸 2개, 10인 이상 룸 1개​
+함양숯불회관 본점의 고기 숙성 공간 ​지리산 흑돼지를 웻에이징으로 72시간, 드라이에이징으로 120시간 교차숙성하여 돼지고기의 풍미와 맛을 극대화 하였다.​프리미엄 돼지고기를 맛볼 수 있는 강남역맛집 고기집 ​
+주문은 각 테이블 비치된 테블릿을 이용하면 된다.매장 이용 안내에 대한 간단한 정보를 읽어보면 좋다.
+강남역맛집 고기집 함양숯불회관 메뉴
+Previous image
+Next image
+시그니처 지리산 흑돼지 소금구이 한 접시가 매우 핫!외에도 꽃 목살, 삼겹살, 고추장 양념구이 등이 있고고주창찌개, 김치수제비등의 곁들임 메뉴도 다양했다.​메뉴판에 김치볶음밥 5천원이라고 되어있는데실제 주문시에는 3천원으로 매우 가성비 좋았고김치수제비는 인기 폭발!!품절이 빠르니 빠르게 주문할 것!!​오전 11:30 - 01:00까지는 점심 특선메뉴제육볶음, 한우육회비빔밥, 한우차돌된장찌개 지리산 흑돼지 고추장 찌개와 함께든든한 점심 한 끼를 즐길 수 있다.​
+소식좌들은 소금구이 한 접시를 주문한다.보통 언니와 400g정도 먹으니여자 둘이서 500g에 사이드 메뉴 하나면 충분할 듯​
+6개의 고기 소스와 5개의 밑반찬,  파절이 무침강남역맛집 고기집의 정갈한 반찬 세팅에 매우 마음에든다.​
+그리고 밑반찬은 셀프코너를 이용하여 리필 가능!깻잎과 궁채 장아찌가 깔끔 상큼하여 너무 맛있었고새콤 매콤한 파무침 맛집이었다.파무침을 셀프로 리필하려고 했는데파무침은 직원분에게 요청하면 맛있게 무쳐준다.​
+영롱한 지리한 흑돼지 소금구이 한접시 등장경건한 마음으로 접시를 들어본다. ㅋ쪽파가 곁들임으로 나온것이 완전 치트키!!쪽파추가도 가능했음 좋겠다!​
+돼지고기의 가장 맛있는 부위인숙성 삼겹살, 목살, 어깨살의 모듬 구성한 접시의 가격은 59,000추가 반접시는 30,000원​
+윰언니가 나보다 고기잘알​첫 점을 맛보더니 이거 정말 삼겹살 맞니?!너무 부드러운데! 맛있다!​일찍이 식욕을 잃은 언니에게서 맛있다는 말을 들을 때마다내가 좋은 맛집으로 잘 데려왔구나 뿌듯하다.​
+언니 이거 그냥 삼겹살 아니잖아~~지리산 흑돼지잖아~~!!내가 키운 흑돼지도 아니면서 괜히 으스댄다.​지금껏 다녀온 곳 top5에 들어갈 것 같다면서윰언니가 매우 만족해한다.​
+준비된 곁들임 찬과 여러 소스들과베리에이션해가며 맛있게 즐기는 고기집강남역맛집 함양숯불회관 본점​막장도 맛있었고 들깨가루도 굿굿!특히 비싸다는 귀한 가리비 알젓도함께 곁들여 먹으니 최고의 조합이었다.​
+불판의 구조도 깔끔했는데사이드 불판에 따로 김치를 구울 수 있고이곳에 김치볶음밥을 만들어 먹을 수도 있다!​
+치즈폭포 계란찜아~고기먹을때 계란찜은 필수죠!!날이 추우니 따듯한 계란찜이 아주 꿀맛입니다!!뜨거울 때 먹으면 아주 천상의 맛치즈를 더해 고소한 맛도 아주 잘 어울린다.​
+소식좌들은 흑돼지 500g 녹다운눈 펑펑 내리는 날씨에 물냉면은 추워추워~후식메뉴로 선택한 메뉴는 바로 더덕구이이다. 굽지 않고 바로 먹어도 생 더덕은 참 맛이 좋다 ㅋ​
+도라지와 더덕은 내가 참 좋아하는 음식이다.이곳에서 사이드 메뉴로 더덕구이가 있어보자마자 메뉴 담기 클릭 클릭!!어떻게 양념을 했는지 몰라도숯불향이 살짝 베이니 완전 고추장 불고기 맛이 난다.뜨끈하며 아삭 쫄깃하게 씹히는 더덕의 맛이 좋다.​
+그리고 마음에들었던 할머니집 감성의 수저세트이것이 바로 강남역맛집 고기집 함양숯불회관 본점 갬성 아이가~!!식욕잃은 윰언니가 인정한 강남역 고기맛집!​
+   광고 후 계속됩니다.     다음 subject author   
+			취소
+		   강남역맛집 고기집 함양숯불회관 본점, 지리산 흑돼지가 맛있는 역삼역맛집 
+	재생 
+ 1 
+	좋아요 
+ 1 
+		좋아요
+		공유 하기
+	                       0:00:00    
+		재생
+		음소거
+	00:00
+	00:36
+ 실시간     
+		설정
+		전체 화면
+			해상도
+		 자동 480p   
+			자막
+		 사용 안함  
+			재생 속도
+		 1.0x (기본)   해상도   
+			자동 (480p)
+			720p
+		 HD    
+			480p
+			270p
+			144p
+		    자막 
+	설정
+			사용 안함
+		      옵션  글자 크기    배경색    재생 속도   0.5x 1.0x (기본) 1.5x 2.0x    
+        알 수 없는 오류가 발생했습니다.
+					도움말
+				   음소거 상태입니다. 
+            도움말
+            라이센스
+				고화질 재생이 가능한 영상입니다.
+				설정에서 해상도를 변경해보세요.
+			 더 알아보기 
+	0:00:00
+접기/펴기강남역맛집 고기집 함양숯불회관 본점, 지리산 흑돼지가 맛있는 역삼역맛집
+강남역맛집 고기집 함양숯불회관 본점, 지리산 흑돼지가 맛있는 역삼역맛집#강남역맛집#강남역고기집#함양숯불회관본점#흑돼지맛집#역삼역맛집#강남연말모임장소
+사장님도 홀 돌면서 열심히 일하시고 직원분들도 고기 맛나게 구워주고 서비스 매너 온도도 너무 좋아서 더 열심히쓰는 리뷰!!!​즐거운 연말 모임은 강남역, 역삼역맛집 프리미엄 지리산 흑돼지 숙성고기가 있는함양숯불회관과 함께해요~예약 필수 필수~!!
+​</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/aisama2/223277705523</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2023. 11. 29. 7:45</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>뿌뿌</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>역삼역 점심 맛집 동봉관 돼지곰탕에 잔술</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>역삼역 점심 맛집 동봉관 돼지곰탕에 잔술​
+안녕하세요 뿌뿌입니다​역삼역 근처에서 점심 맛집 찾고 계시는 직장인들과 잇님들을 위해 돼지곰탕 맛있는 동봉관을 소개해 드리려고 해요^^​​동봉관
+유기그릇에 정갈하게 담아져 나와 더욱 먹음직스러웠는데요~​동봉관 돼지곰탕은투명하고 맑은 국물이 인상적이었어요​맛있게 익은 김치 한 점 올려 먹으면완전 꿀맛^^​​
+50m© NAVER Corp.더보기 /OpenStreetMap지도 데이터x© NAVER Corp. /OpenStreetMap지도 컨트롤러 범례부동산거리읍,면,동시,군,구시,도국가
+동봉관
+서울특별시 강남구 도곡로37길 38
+✔️주소 : 서울 강남구 역삼동 779-1✔️영업시간 월~금 11:00~21:00 / 토, 일 11:00~18:00월~금 브레이크 타임 있고요, 주말은 브레이크 타임 없어요✔️휴무일 : x 연중무휴✔️주차장 : 있음✔️화장실 : 밖으로 나가서 건물 1층 (남녀 공용 / 비번 없음)​​​
+줄 서는 맛집이었네요일찍 방문해서 웨이팅 없이 들어갔어요 ㅎㅎ​​
+외관
+구. 옥동식 식당이 동봉관으로 바뀐 거예요​​
+역삼역 1번 출구에서 도보 1.1km / 차로 1.4km(7분) 떨어져 있는 곳에 위치해있고요한티역에서 오기에도 괜찮아보여요​​
+동봉관 기준으로 좌우 골목 사진이에요​​
+전용은 아니라고 하셨는데..건물에 주차장이 있답니다 ​6~7대 선착순 가능했고요(밥 먹다 말고 빼줘야 할 수도 있음)​앞에 주차된 차를 빼야 하는 경우,일일이 전화를 해야 해요​주말 일요일 방문^^주차 자리 있으면 먹고, 아니면 말자~ 하고 온 건데일찍 방문해서.. 주차할 수 있었네요​​
+내부
+문을 열고 들어오면..돼지곰탕집이 맞나? 싶을 정도로감성 가득한 분위기예요​테이블은 바 형태로 되어있어서나란히 앉아서 식사를 했답니다​​
+메뉴
+맑은 곰탕 단일 메뉴였고요보통이냐 특이냐 사이즈 선택만 하면돼요​그리고, 눈에 띈 잔술 3천 원 ㅋ​​
+유기그릇으로 고급짐을 더했네요​​
+김치는 집게로개인 접시에 덜어 먹었는데요먹기 좋은 크기로 잘라 있어서먹기도 편하더라고요​처음에 조금 덜어서 맛보았는데맛있어서 듬뿍 리필~​​
+보통 사이즈로 주문했어요​​
+국물이 어찌나 맑고 투명한지 말아져 있는 밥이 보일 정도였고요​얇고 큰 돼지고기가 여러 장 겹쳐있어요​​
+동봉관 오는 길에 YOU에게 미리 운전대를 넘겼는데.. (빅 피처? ㅋㅋ)미안~ 내가 한잔 마셔볼게^^​잔술을 주문하면, 직원분이 술 주전자를 가지고 와서 따라주면서잔술에 대해 설명해 주셨어요~​​
+황금 보리소주이며,알코올 도수는 17도^^ 잔술을 따라준 술잔이 마음에 들었고술맛은.. 아주아주 깔끔했어요​돼지곰탕 한 그릇에 잔술 한잔 딱 좋네요~ ㅎㅎ​​
+기름끼 살짝 뜬 국물은 고소하면서도 구수했어요​누린내 같은거 전혀 없고담백해서 물리지가 않는답니다​​
+김치도 맛있어서 먹고 먹고 또 먹고~그냥 후루룩 빨려 들어가요 ㅎ​​
+원산지가 남원 지리산인 돼지고기는큼직한 크기에 두께감은 얇기 때문에반으로 접어서 먹으니까 편했고​지방이 적당히 섞여있어 더욱 고소하고 쫄깃하니 맛있었어요​​
+매운 소스 찍어 먹거나 김치 한 점 돌돌 말아 먹어도 맛있답니다​국물이 텁텁하지 않고 깔끔 맛있어서그릇째 들고 드링킹까지 한건 안 비밀^^​
+​음식이 빨리 나오는 편이고토렴식이라서 엄청 뜨겁지도 않아한 그릇 먹는 시간도 짧은 편!​웨이팅 하더라도 회전율이 빠를 것 같았어요​​
+점심 메뉴로도 좋고~퇴근 후에, 따뜻해지는 돼지곰탕 한 그릇에가볍게 잔술 한잔 생각날때 방문해도 좋을동봉관을 역삼역 맛집으로 살포시 추천드려볼게요 :)​​
+#동봉관 #맑은곰탕 #잔술#역삼역점심맛집 #역삼맛집​​​</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://blog.naver.com/crispynote/223298266120</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2023. 12. 20. 12:17</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>유나스테이블</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>서울 역삼역 닭도리탕맛집 역삼농원 역대급 숯불의 찐맛</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>​​내가 좋아하는 음식 중 하나가 닭도리탕이다.집에서 만들어 먹는 것도 맛있지만,외식으로 먹을 때는 특별한 감칠맛이 있다.그래서인지 서울 닭도리탕맛집들은 거의 다 가봤다.​​
+​​서울 닭도리탕맛집 양대 산맥으로 불리는 곳부터나만의 시크릿 맛집까지!근데 이번에 내 마음 속 1위 맛집이 흔들리고 말았다.벌써 입소문이 난 역삼역맛집 역삼농원 때문!!​​
+​​이곳은 다른 곳과는 달리 닭을 숯불로 초벌 한 후양념에 지글지글 끓여 낸다.초벌의 효과가 얼마나 클지 궁금했는데그야말로 기대 이상!!근데, 역삼농원은 닭도리탕맛집이지만사이드 메뉴도 엄지 척!​​
+​​오늘은 이곳에서 반드시(!!) 먹어야 하는시그니처 메뉴 플러스++이를 더 빛나게 하는 사이드 메뉴까지 소개한다.​​​
+​
+​
+역삼농원 숯불닭도리탕​오픈하자마자 인기 폭발 역삼역맛집닭도리탕 덕후라면 반드시 가야 할 필수 코스
+​웨이팅이 많은 역삼역맛집이라는 이야기를 들어 일부러 사람이 없는 오후 2시 30분에 갔다.당연히(!) 점심시간을 훌쩍 넘은 터라, 내가  갔을 때 점심식사를 마무리하는 테이블 하나만 있었다.​​
+​​근데 놀라운 건... 그 시간에 배달이 왜 그리 많은 지?오후 2시 반에...닭도리탕을 배달 주문해 먹는다고?놀랍다 놀라워!참고로, 역삼농원은 배민, 쿠팡이츠 등에서 배달 주문 가능하다. ​​​▶ 영업시간매일 / 11:00-04:00
+​​※ 별도의 브레이크 타임은 없다.식사 시간에는 손님이 상당히 많은 역삼역맛집이다.내가 2시 반에 가니 한적했다. 근데 4시부터 다시 손님들이 모이기 시작한다.늦게까지 운영하는 만큼 연말회식 2차, 3차 장소로도 GOOD!​
+▶ LOCATION &amp; DECOR
+​
+매장 위치
+50m© NAVER Corp.더보기 /OpenStreetMap지도 데이터x© NAVER Corp. /OpenStreetMap지도 컨트롤러 범례부동산거리읍,면,동시,군,구시,도국가
+역삼농원
+서울특별시 강남구 논현로 333 1층 역삼농원
+예약
+​​역삼역 2번 출구로 나와 양재 방향으로 걸어간다.10분 정도 직진하면 매장이 보인다. 레트로풍 분위기의 매장 간판이 시선을 사로잡는다.​​
+​​평소 웨이팅이 있다는 것을 알 수 있는 의자들이 매장 앞에 보인다.​참고로, 따로 주차 공간은 없다.역삼역 맛집들은 주차가 쉽지 않으니, 개인적으로 대중교통 이용을 권한다.
+​
+​
+매장 내. 외부 분위기
+매장 외부와 통일된 느낌의 내부 인테리어이다.빈티지스러운 느낌이 좋다.​​
+​​레트로 느낌이지만, 위생 관념은 철저하다.불판-테이블-의자 모두 깨끗!반짝반짝 광이 나는 것이 마음에 든다.​​
+​​가끔 닭도리탕맛집들을 가면 테이블에 양념이 묻어 있고, 불판을 안 닦아 지저분한 곳들도 있는데 여기는 아주 깨끗하다.예민보스가 있는 단체모임 장소로도 손색이 없다.​​
+​​역삼역 맛집임을 인증하는 연예인 사인들!!근데 블락비 재효 사인도 있다.오오오!! 단골 맛집이라니!!더 기대가 된다.​​
+​​참고로, 의자는 수납의자이다. 코트를 안에 두면 냄새 배는 것을 막을 수 있다.​​
+​​레트로 느낌을 주기 위해 두루마리 휴지를 올렸다.근데, 평범한 두루마리 휴지가 아니다.완전 귀요미 휴지이다.지금은 크리스마스 분위기를 내고 있는데, 크리스마스가 지나면 어떤 휴지를 올려놓을지 궁금해진다.​​
+​​기본 찬 그릇, 수저 그리고 컵 등은 테이블 옆 선반에 가지런히 놓여 있다.​​
+▶ FOOD &amp; MENU 
+​
+메뉴판 
+이곳에서는 무조건 닭도리탕을 먹어야 한다.​​
+​​숯불 곱도리탕, 닭도리탕 그리고 모닥치기가 시그니처 메뉴이다.혼밥에 대한 걱정도 뚝!1인 닭도리탕도 있다. 물론, 1인 닭도리탕 배달 주문도 가능하다.​​
+​​닭은 추가 주문 가능하며, 그 외 주먹밥, 떡, 당면, 우동사리 등은 추가할 수 있다.숯불닭목살구이, 오뎅탕, 닭연골튀김 등의 구이·안주 메뉴와 부추전, 야채튀김, 계란말이 등의 사이드 메뉴도 있다.​​
+​​소주, 맥주, 하이볼 등의 주류는 물론, 다양한 음료도 준비되어 있어 연말회식 혹은 단체모임하기 좋다.​​​
+음식평
+주문 음식 / 음료▼▼▼
+​숯불 닭도리탕맑은 오뎅탕부추전제로콜라허벅하이볼​
+​우리는 필수 주문 메뉴, 숯불 닭도리탕 주문!!총 3단계로 맵기 조절이 가능하다.나는 2단계를 주문했는데, 신라면과 열라면 중간 즈음의 맵기이다.​​
+​​식당 오기 전에는 숯불닭목살구이를 주문하려고 했는데, 내가 간 날은 너~~무 추웠다.그래서 맑은 오뎅탕과 부추전 주문!!​​기본 반찬기본 반찬은 3가지이다.​​
+​​두부, 어묵볶음 그리고 김치.마치 엄마가 만들어준 듯 반찬 하나하나 맛있다.​​
+​​참고로, 레트로 느낌 유리병에 담긴 건 보리차이다.​​허벅 하이볼과 제로콜라허벅 하이볼은 전통주인 허벅술을 이용한 하이볼로 꿀을 넣어 달콤한 맛이 있다.​​
+​​달달~하니 여자들이 좋아할 맛이다.​​
+​​만약 데이트 장소 혹은 여자친구들과의 연말 회식장소로 여기를 선택했다면 이거 추천한다.​​맑은 오뎅탕오뎅탕이 나오는 순간 나도 모르게 웃음이 났다.​​
+​​이게 뭐야?!?누구 아이디어인지는 모르겠지만 머리가 좋다!오뎅 국물을 쉽게 따를 수 있는 냄비에 담겨 나온다.​​
+​​오뎅은 다양한 모양으로 있다.대파와 양파를 넣어 은은한 단맛이 좋다.큼직한 표고버섯과 홍고추는 감칠맛을 더한다.​​
+​​이는 매운맛은 거의 없고 오뎅의 감칠맛과 양파의 단맛이 느껴지는 국물로 겨울철 사이드 메뉴로 좋다. ​​부추전역삼농원에서 필수 주문 사이드 메뉴이다.활용도가 백만점짜리이다.​​
+​​부추전은 완전 바삭바삭!!부추를 이렇게 많이 넣었는데, 튀김처럼 바삭하다.가장자리는 물론, 중심부까지 바삭하다.​​
+​​양도 꽤 많아 서로 먹겠다고 눈치 싸움할 일이 없다. ​​
+​​양념장에 찍어 먹어도 맛있지만, 부추전 자체에 간이 잘 되어 있어 그냥 먹어도 맛있다.​​숯불 닭도리탕오늘의 하이라이트 닭도리탕!!​​
+​​나는 재료를 추가하지 않았는데, 기본적으로 야채, 버섯, 감자, 우동사리가 가득 들어있다.2명이서 가면 기본 구성으로도 충분하다.3명이서 먹는다면 닭, 우동사리를 추가해도 좋다.​​
+​​닭은 숯불에 초벌했기 때문에 바로 먹어도 된다.근데 닭을 자세히 보니 숯에 구워진 것이 보인다!!​​
+​​이거 완전 기대되는데?!?양념이 끓기 시작하자마자 바로 공격!​​
+​​한 입 먹어보니 오! 확실히 다르다!보통의 닭도리탕은 닭고기가 맛있다는 생각이 들기보다 양념이 맛있다는 생각이 든다.근데 이건 닭고기 자체에서도 은은한 불향이 느껴져 맛있다. ​​
+​​그리고 초벌을 해서일까?양념이 더 쏙쏙 배여 있다.​​
+​​가끔 어떤 닭도리탕 맛집을 가면 닭과 양념이 따로 노는 듯한데 이건 양념이 쏙쏙 배어 있으니 더 맛있다.뿐만 아니라, 살도 더 탄력 있는 식감이다.​​
+​​촉촉하면서도 탄력이 있다.퍽퍽살조차도 촉촉하게 느껴질 정도이다. 만드는 사람 입장에서는 초벌을 해야 해서 번거롭겠지만, 먹는 사람 입장에서는 이게 찐맛이구나!​정신없이 닭도리탕을 먹다보니 줄 서는 이유, 그리고 오후 2시 반에도 배달 주문해 먹는 이유를 알겠다.​​
+   광고 후 계속됩니다.     다음 subject author   
+			취소
+		   역삼농원 숯불 닭도리탕 찐맛! 
+	재생 
+ 0 
+	좋아요 
+ 0 
+		좋아요
+		공유 하기
+	                       0:00:00    
+		재생
+		음소거
+	00:00
+	00:49
+ 실시간     
+		설정
+		전체 화면
+			해상도
+		 자동 480p   
+			자막
+		 사용 안함  
+			재생 속도
+		 1.0x (기본)   해상도   
+			자동 (480p)
+			1080p
+		 HD    
+			720p
+		 HD    
+			480p
+			270p
+			144p
+		    자막 
+	설정
+			사용 안함
+		      옵션  글자 크기    배경색    재생 속도   0.5x 1.0x (기본) 1.5x 2.0x    
+        알 수 없는 오류가 발생했습니다.
+					도움말
+				   음소거 상태입니다. 
+            도움말
+            라이센스
+				고화질 재생이 가능한 영상입니다.
+				설정에서 해상도를 변경해보세요.
+			 더 알아보기 
+	0:00:00
+역삼농원 숯불 닭도리탕 찐맛!
+​​그리고 여기 양념이 진짜 맛있다. 적당히 매콤한 맛.여기에 숯불로 초벌 한 닭고기 맛이 국물에 배어 진한 감칠맛이 좋다. ​​
+​​부추전은 그냥 먹어도 맛있지만, 닭도리탕과 함께 먹어야 한다.​​
+​​부추전 위에 닭고기 한 점.여기에 양념도 듬뿍!!이렇게 먹으면 매콤-담백-고소-감칠맛 폭발!입안에서 감칠맛이 팡팡 터진다.​​
+​​닭도리탕에 있는 야채를 부추전에 올려 먹어도 좋다.​​
+​​남편은 어묵도 여기에 찍어 먹는다.밥도둑이 따로 없다.​​
+​​보는 눈만 없으면 그릴드 팬을 들고 흡입하고 싶다. 이곳에서 먹은 지 며칠 되지 않았는데 또 생각난다.아무래도 내 닭도리탕 맛집 1위가 바뀐 듯하다.​이날 나는 소문을 듣고 일부러 역삼역까지 갔다. 근데 너무 마음에 들어 다음 주 가족들과 연말 단체모임에서 또 먹을 생각이다. 그때는 배민으로 주문할 생각이다. ​​
+​​다음주 단체모임에서는 사람도 많으니 농원 숯불닭볶음탕에 야채튀김과 순대까지 포함되어 있는 농원 모닥치기로 주문해야겠다.또 먹을 생각하니 벌써부터 신난다.​참고로, 지금 네이버 플레이스, 인스타그램 이벤트도 진행하고 있으니 참여하면 음료가 서비스!​​
+*본 포스트는 식사권을 받아 직접 먹은 후 작성한 솔직한 후기입니다.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
